--- a/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
+++ b/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="599">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1884,6 +1884,655 @@
   </si>
   <si>
     <t>DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItPachong.DoNet.Utilities.DataBase.Operate</t>
+  </si>
+  <si>
+    <t>DataReaderHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataReader对象操作类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续读取下一条数据操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDataReader reader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInt32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取数据，转换为int类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column</t>
+  </si>
+  <si>
+    <t>string column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column
+int defaultIfNull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInt32Nullable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取数据，转换为int?数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInt16</t>
+  </si>
+  <si>
+    <t>GetInt16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取数据，转换为short（int16）数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column
+short defaultIfNull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetInt16Nullable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取数据，转换为short?（int16?）数据类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFloat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Float类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column
+float defaultIfNul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFloatNullable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Float?类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDouble</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Double类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column
+double defaultIfNul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDoubleNullable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Double?类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDecimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Decimal类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column
+decimal defaultIfNul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDecimalNullable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Decimal?类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSingle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Single类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column
+single defaultIfNul</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSingleNullable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Single?类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBoolean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为bool类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column
+bool defaultIfNull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBooleanNullable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为bool?类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为string类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column
+string defaultIfNull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBytes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Byte字节数据类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[ ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGuid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Guid类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetGuidNullable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为Guid?类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guid?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为DateTime类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string column
+DateTime defaultIfNull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDateTimeNullable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转换为DateTime?类型数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTableHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable对象操作类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Merge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并具有相同数据结构的两个DataTable数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable table1
+DataTable table2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteDataTableToXml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将DataTable对象内数据写入XML文件中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable datatable
+string fileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectDataTableContents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从DataTable中按条件查询，并返回查询行实体数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable table
+string filterExpression</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataRow[ ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体对象集合转换为DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;T&gt; entities</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable转换为实体集合</t>
+  </si>
+  <si>
+    <t>IList&lt;T&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnumToDataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举转DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type enumType
+string key
+string value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateNullableTable</t>
+  </si>
+  <si>
+    <t>根据键值对集合,创建一个DataTable对象（没有值）
+    键值对集合与Column关系如下：
+        Key：      列名
+        Value:     列类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dictionary&lt;string, string&gt; columns</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateNullableTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string nameString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过字符串列表创建一个DataTable对象，字符串格式如下：
+    1）a,b,c,d,e 或 a;b;c;d;e
+    2）a|int,b|string,c|bool,d|decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable对象实例数据按条件排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+params string[] sorts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string where
+string strField
+int rowIndex = 0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从DataTable查找指定值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string where
+string strField</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;object&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectReturnDataRow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string value
+string strField</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataRow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFilterData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在DataTable中查找给定条件的记录，并返回新的DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string strField
+string findValue
+string sortField
+string orderBy = "ASC"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选函数，将数据表中指定的值查询出来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string where
+string sort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetColList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据DataTable，返回指定列数据列表，使用","进行分隔</t>
+  </si>
+  <si>
+    <t>DataTable dt
+string colName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetArrayString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[ ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据DataTable,返回指定列数据的String[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetArrayInt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据DataTable,返回指定列数据的int[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[ ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetColumnsString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据DataTable,返回第一行各列数据到String[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据DataTable，返回n行n列的数据到string[,]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[ , ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTableTidyUp</t>
+  </si>
+  <si>
+    <t>整理DataTable数据，以便于在有层次感的数据容器中使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string pkFiled
+string parentIdFiled</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTableTidyUp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string pkFiled
+string parentIdFiled
+int parentId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSetTidyUp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理dataTable数据，以便于在有层次感的数据容器中使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string pkField
+string parentIDField</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTableTreeSort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string pkField
+string parentIdField = "ParentId"
+string sortName = "ParentId asc, SortId asc"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2290,7 +2939,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2577,18 +3226,34 @@
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+    <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2687,6 +3352,8 @@
     <hyperlink ref="C16" location="函数描述!B162" display="RequestHelper"/>
     <hyperlink ref="C17" location="函数描述!B192" display="SessionHelper"/>
     <hyperlink ref="C18" location="函数描述!B209" display="CsvHelper"/>
+    <hyperlink ref="C19" location="函数描述!B215" display="DataReaderHelper"/>
+    <hyperlink ref="C20" location="函数描述!B252" display="DataTableHelper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2695,10 +3362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:F213"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="E254" sqref="E254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5189,8 +5856,842 @@
         <v>445</v>
       </c>
     </row>
+    <row r="215" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A215" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C215" s="6"/>
+      <c r="D215" s="6"/>
+    </row>
+    <row r="216" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C216" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A252" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+    </row>
+    <row r="253" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A253" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="18">
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B252:D252"/>
     <mergeCell ref="B162:D162"/>
     <mergeCell ref="B192:D192"/>
     <mergeCell ref="B209:D209"/>

--- a/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
+++ b/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="645">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2535,12 +2535,218 @@
 string sortName = "ParentId asc, SortId asc"</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>DataRepositoryHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据仓库帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataRepositoryHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbContext dbContext</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression&lt;Func&lt;T, bool&gt;&gt; where</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找实体列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IQueryable&lt;T&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression&lt;Func&lt;T, bool&gt;&gt; where
+int number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression&lt;Func&lt;T, bool&gt;&gt; where
+OrderParam orderParam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression&lt;Func&lt;T, bool&gt;&gt; where
+OrderParam orderParam
+int number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression&lt;Func&lt;T, bool&gt;&gt; where
+OrderParam[ ] orderParams
+int number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindPageList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查找分页列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int pageSize
+int pageIndex
+out int totalNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int pageSize
+int pageIndex
+out int totalNumber
+OrderParam orderParam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int pageSize
+int pageIndex
+out int totalNumber
+Expression&lt;Func&lt;T, bool&gt;&gt; where</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int pageSize
+int pageIndex
+out int totalNumber
+Expression&lt;Func&lt;T, bool&gt;&gt; where
+OrderParam orderParam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int pageSize
+int pageIndex
+out int totalNumber
+Expression&lt;Func&lt;T, bool&gt;&gt; where
+OrderParam[ ] orderParams</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T entity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加实体（立即保存）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T entity
+bool isSave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新实体（立即保存）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除实体（立即保存）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEnumerable&lt;T&gt; entities</t>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expression&lt;Func&lt;T, bool&gt;&gt; predicate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsContains</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录是否存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存数据（在Add、Upate、Delete未立即保存的情况下使用）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2565,6 +2771,23 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -2573,12 +2796,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2632,27 +2853,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2939,399 +3169,407 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="5.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+      <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="1"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+      <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+      <c r="A17" s="8">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+      <c r="A19" s="8">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3354,6 +3592,7 @@
     <hyperlink ref="C18" location="函数描述!B209" display="CsvHelper"/>
     <hyperlink ref="C19" location="函数描述!B215" display="DataReaderHelper"/>
     <hyperlink ref="C20" location="函数描述!B252" display="DataTableHelper"/>
+    <hyperlink ref="C21" location="函数描述!B279" display="DataRepositoryHelper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3362,41 +3601,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D276"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="E254" sqref="E254"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A279" sqref="A279:D305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="50.625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="40.625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="30.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="50.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3499,26 +3738,26 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3537,26 +3776,26 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3617,26 +3856,26 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3711,26 +3950,26 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3763,26 +4002,26 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3857,26 +4096,26 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3905,26 +4144,26 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
     </row>
     <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3999,26 +4238,26 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
     </row>
     <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4079,26 +4318,26 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
     </row>
     <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4677,26 +4916,26 @@
       </c>
     </row>
     <row r="117" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
     </row>
     <row r="118" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -4939,26 +5178,26 @@
       </c>
     </row>
     <row r="138" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
     </row>
     <row r="139" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5089,26 +5328,26 @@
       </c>
     </row>
     <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
     </row>
     <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5211,26 +5450,26 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
     </row>
     <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5599,26 +5838,26 @@
       </c>
     </row>
     <row r="192" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C192" s="6"/>
-      <c r="D192" s="6"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
     </row>
     <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C193" s="5" t="s">
+      <c r="C193" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5805,26 +6044,26 @@
       </c>
     </row>
     <row r="209" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="C209" s="6"/>
-      <c r="D209" s="6"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C210" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -5857,26 +6096,26 @@
       </c>
     </row>
     <row r="215" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C215" s="6"/>
-      <c r="D215" s="6"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
     </row>
     <row r="216" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C216" s="5" t="s">
+      <c r="C216" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6343,26 +6582,26 @@
       </c>
     </row>
     <row r="252" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A252" s="5" t="s">
+      <c r="A252" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
+      <c r="C252" s="5"/>
+      <c r="D252" s="5"/>
     </row>
     <row r="253" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B253" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C253" s="5" t="s">
+      <c r="C253" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D253" s="5" t="s">
+      <c r="D253" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6688,18 +6927,383 @@
         <v>532</v>
       </c>
     </row>
+    <row r="279" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B279" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="C279" s="5"/>
+      <c r="D279" s="5"/>
+    </row>
+    <row r="280" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
+  <mergeCells count="19">
+    <mergeCell ref="B279:D279"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B138:D138"/>
@@ -6708,6 +7312,16 @@
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B209:D209"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
+++ b/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="875">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2741,12 +2741,1040 @@
     <t>保存数据（在Add、Upate、Delete未立即保存的情况下使用）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ItPachong.DoNet.Utilities.DataBase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMaxID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到最大值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string FieldName
+string TableName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strSql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存在（基于MySqlParameter）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strSql
+params MySqlParameter[] cmdParms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteSql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行SQL语句，返回影响的记录数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string SQLString</t>
+  </si>
+  <si>
+    <t>string SQLString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteSqlByTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在规定时间范围内执行SQL语句，返回影响的记录数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string SQLString
+int Times</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteSqlTran</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行MySql和Oracle混合事务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;CommandInfo&gt; list
+List&lt;CommandInfo&gt; oracleCmdSqlList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行多条SQL语句，实现数据库事务。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt; SQLStringList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行带一个存储过程参数的的SQL语句</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string SQLString
+string content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteSqlGet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteSqlInsertImg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向数据库里插入图像格式的字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strSQL
+byte[] fs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSingle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行一条计算查询结果语句，返回查询结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteReader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">执行查询语句，返回MySqlDataReader </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strSQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySqlDataReader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行查询语句，返回DataSet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string SQLString
+params MySqlParameter[] cmdParms</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hashtable SQLStringList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行多条SQL语句，实现数据库事务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Collections.Generic.List&lt;CommandInfo&gt; cmdList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteSqlTranWithIndentity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Collections.Generic.List&lt;CommandInfo&gt; SQLStringList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL | OleDb | Oracle | Sql Server | SQLite数据访问抽象基础类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbHelperMySQL
+DbHelperOleDb
+DbHelperOra
+DbHelperSQL
+DbHelperSQLite</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItPachong.DoNet.Utilities.Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChinaDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公历转农历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDaysByMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传回公历y年m月的总天数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int y
+int m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMondayDateByDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据日期值获得周一的日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetChinaDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取农历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CNDate</t>
+  </si>
+  <si>
+    <t>ChineseCalendar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国日历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数：用一个标准的公历日期来初使化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数：用农历的日期来初使化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int cy
+int cm
+int cd
+bool leapMonthFlag</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeekDayHoliday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算中国农历节日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按某月第几周第几日计算的节日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NewCalendarHoliday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateHoliday</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按公历日计算的节日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公历日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeekDay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公历星期几</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeekDayStr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周几的字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公历日期中文表示法 如一九九七年七月一日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLeapYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前是否公历闰年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseConstellation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>28星宿计算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseHour</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时辰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsChineseLeapMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否闰月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsChineseLeapYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当年是否有闰月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseDay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农历日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseDayString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农历日中文表示</t>
+  </si>
+  <si>
+    <t>ChineseMonth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农历的月份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseMonthString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>农历月份字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseYear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取农历年份</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseYearString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取农历年字符串如，一九九七年</t>
+  </si>
+  <si>
+    <t>ChineseDateString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取农历日期表示法：农历一九九七年正月初五</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseTwentyFourDay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定气法计算二十四节气,二十四节气是按地球公转来计算的，并非是阴历计算的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseTwentyFourPrevDay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期前一个最近节气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseTwentyFourNextDay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期后一个最近节气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constellation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算指定日期的星座序号</t>
+  </si>
+  <si>
+    <t>Animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算属相的索引，注意虽然属相是以农历年来区别的，但是目前在实际使用中是按公历来计算的。 鼠年为1,其它类推</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimalString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取属相字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GanZhiYearString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取农历年的干支表示法如 乙丑年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GanZhiMonthString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取干支的月表示字符串，注意农历的闰月不记干支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GanZhiDayString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取干支日表示法</t>
+  </si>
+  <si>
+    <t>GanZhiDateString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取当前日期的干支表示法如 甲子年乙丑月丙庚日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tPachong.DoNet.Utilities.Dencrypt</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">对字符串或字节数组进行给定或缺省密码加密、解密。
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    1.使用缺省密钥字符串，加密/解密String
+       2.使用给定密钥字符串，加密/解密String
+       3.使用缺省密钥字符串，加密/解密byte[]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      4.使用给定密钥字符串，加密/解密byte[]</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEncrypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encrypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用缺省密钥字符串加密String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string  original</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decrypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用缺省密钥字符串解密String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用给定密钥字符串加密String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string original
+string key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用给定密钥字符串解密String</t>
+  </si>
+  <si>
+    <t>string original
+string key
+System.Text.Encoding encoding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用缺省密钥字符串解密byte[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[] encrypted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用缺省密钥字符串加密byte[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[] original
+byte[] key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用给定密钥，加密byte[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用给定密钥，解密byte[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DESEncrypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对字符串进行DES加密/解密类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string text</t>
+  </si>
+  <si>
+    <t>string text</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string text
+string key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密/解密实用类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Encode</t>
+  </si>
+  <si>
+    <t>string tex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Md5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5加密</t>
+  </si>
+  <si>
+    <t>string encypStr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashEncode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到随机安全码（哈希加密）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSecurity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到随机哈希加密字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HashEncoding</t>
+  </si>
+  <si>
+    <t>哈希加密一个字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string security</t>
+  </si>
+  <si>
+    <t>MySecurity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEncryptString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string inputStr
+string keyStr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string inputStr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncryptString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDecryptString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解密字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecryptString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EncryptFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filePath
+string savePath
+string keyStr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecryptFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>解密文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD5加密（不可逆）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>128位MD5算法加密byte数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[] data</t>
+  </si>
+  <si>
+    <t>EncodeBase64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base64加密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecodeBase64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base64解密</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSACryption</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">安全类
+       1.字符串的加密、解密；
+       2.文件的加密、解密；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      3.MD5加密
+       4.Base64加密、解密</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA加密、解密（即：公钥、私钥加解密）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSAKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成RSA的密钥，产生私钥和公钥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out string xmlPrivateKeys
+out string xmlPublicKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSAEncrypt</t>
+  </si>
+  <si>
+    <t>RSA加密字符串</t>
+  </si>
+  <si>
+    <t>string xmlPublicKey
+string encryptString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA加密Byte数组</t>
+  </si>
+  <si>
+    <t>string xmlPublicKey
+byte[] encryptBytes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSADecrypt</t>
+  </si>
+  <si>
+    <t>RSADecrypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA解密字符串</t>
+  </si>
+  <si>
+    <t>string xmlPrivateKey
+string decryptString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA解密Byte数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string xmlPrivateKey
+byte[] decryptBytes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Hash描述表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strSource
+ref byte[] hashData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strSource
+ref string strHashData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.IO.FileStream objFile
+ref byte[] hashData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.IO.FileStream objFile
+ref string strHashData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignatureFormatter</t>
+  </si>
+  <si>
+    <t>SignatureFormatter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA签名</t>
+  </si>
+  <si>
+    <t>string strKeyPrivate
+byte[] hashByteSignature
+ref byte[] encryptedSignatureData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strKeyPrivate
+byte[] hashByteSignature
+ref string encryptedSignatureStr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strKeyPrivate
+string strHashByteSignature
+ref byte[] encryptedSignatureData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strKeyPrivate
+string strHashByteSignature
+ref string strEncryptedSignature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SignatureDeformatter</t>
+  </si>
+  <si>
+    <t>SignatureDeformatter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RSA签名验证</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strKeyPublic
+byte[] hashByteDeformatter
+ref byte[] deformatterData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strKeyPublic
+string strHashByteDeformatter
+ref byte[] deformatterData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strKeyPublic
+byte[] hashByteDeformatter
+ref string strDeformatter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string p_strKeyPublic, string p_strHashbyteDeformatter, string p_strDeformatterData</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2810,6 +3838,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2855,7 +3892,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2869,9 +3906,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2883,6 +3917,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3168,408 +4214,480 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="5.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="E16" s="8"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>438</v>
       </c>
-      <c r="E18" s="8"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>528</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>446</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>600</v>
       </c>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>695</v>
+      </c>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>708</v>
+      </c>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>773</v>
+      </c>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>794</v>
+      </c>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>800</v>
+      </c>
+      <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>808</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>838</v>
+      </c>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>772</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>839</v>
+      </c>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3593,6 +4711,15 @@
     <hyperlink ref="C19" location="函数描述!B215" display="DataReaderHelper"/>
     <hyperlink ref="C20" location="函数描述!B252" display="DataTableHelper"/>
     <hyperlink ref="C21" location="函数描述!B279" display="DataRepositoryHelper"/>
+    <hyperlink ref="C22" location="函数描述!B308" display="DbHelperMySQL"/>
+    <hyperlink ref="C23" location="函数描述!B335" display="ChinaDate"/>
+    <hyperlink ref="C24" location="函数描述!B342" display="ChineseCalendar"/>
+    <hyperlink ref="C25" location="函数描述!B377" display="DEncrypt"/>
+    <hyperlink ref="C26" location="函数描述!B390" display="DESEncrypt"/>
+    <hyperlink ref="C27" location="函数描述!B398" display="Encrypt"/>
+    <hyperlink ref="C28" location="函数描述!B405" display="HashEncode"/>
+    <hyperlink ref="C29" location="函数描述!B411" display="MySecurity"/>
+    <hyperlink ref="C30" location="函数描述!B427" display="RSACryption"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3601,10 +4728,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A279" sqref="A279:D305"/>
+    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
+      <selection activeCell="B427" sqref="B427:D427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3619,11 +4746,11 @@
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3741,11 +4868,11 @@
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -3779,11 +4906,11 @@
       <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
@@ -3859,11 +4986,11 @@
       <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
@@ -3953,11 +5080,11 @@
       <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
@@ -4005,11 +5132,11 @@
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
@@ -4099,11 +5226,11 @@
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
@@ -4147,11 +5274,11 @@
       <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
@@ -4241,11 +5368,11 @@
       <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
@@ -4321,11 +5448,11 @@
       <c r="A72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -4919,11 +6046,11 @@
       <c r="A117" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="D117" s="5"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
     </row>
     <row r="118" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
@@ -5181,11 +6308,11 @@
       <c r="A138" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
     </row>
     <row r="139" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
@@ -5331,11 +6458,11 @@
       <c r="A151" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="C151" s="5"/>
-      <c r="D151" s="5"/>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
@@ -5453,11 +6580,11 @@
       <c r="A162" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C162" s="5"/>
-      <c r="D162" s="5"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
     </row>
     <row r="163" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
@@ -5841,11 +6968,11 @@
       <c r="A192" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="10"/>
     </row>
     <row r="193" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
@@ -6047,11 +7174,11 @@
       <c r="A209" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="C209" s="5"/>
-      <c r="D209" s="5"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
     </row>
     <row r="210" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
@@ -6099,11 +7226,11 @@
       <c r="A215" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="C215" s="5"/>
-      <c r="D215" s="5"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
     </row>
     <row r="216" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
@@ -6585,11 +7712,11 @@
       <c r="A252" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B252" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="C252" s="5"/>
-      <c r="D252" s="5"/>
+      <c r="C252" s="10"/>
+      <c r="D252" s="10"/>
     </row>
     <row r="253" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
@@ -6931,11 +8058,11 @@
       <c r="A279" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="C279" s="5"/>
-      <c r="D279" s="5"/>
+      <c r="C279" s="10"/>
+      <c r="D279" s="10"/>
     </row>
     <row r="280" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
@@ -7301,22 +8428,1590 @@
         <v>630</v>
       </c>
     </row>
+    <row r="308" spans="1:4" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>692</v>
+      </c>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
+    </row>
+    <row r="309" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A309" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C335" s="10"/>
+      <c r="D335" s="10"/>
+    </row>
+    <row r="336" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A336" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="C342" s="10"/>
+      <c r="D342" s="10"/>
+    </row>
+    <row r="343" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="D346" s="12"/>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B359" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B360" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B362" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+    </row>
+    <row r="365" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="B365" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B366" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B367" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B368" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+    </row>
+    <row r="369" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B369" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B370" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B371" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B372" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B373" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="B374" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
+    </row>
+    <row r="377" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="C377" s="10"/>
+      <c r="D377" s="10"/>
+    </row>
+    <row r="378" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B379" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B390" s="10" t="s">
+        <v>793</v>
+      </c>
+      <c r="C390" s="10"/>
+      <c r="D390" s="10"/>
+    </row>
+    <row r="391" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B398" s="10" t="s">
+        <v>775</v>
+      </c>
+      <c r="C398" s="10"/>
+      <c r="D398" s="10"/>
+    </row>
+    <row r="399" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D399" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B405" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C405" s="10"/>
+      <c r="D405" s="10"/>
+    </row>
+    <row r="406" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A406" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A411" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="C411" s="10"/>
+      <c r="D411" s="10"/>
+    </row>
+    <row r="412" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D412" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B427" s="10" t="s">
+        <v>837</v>
+      </c>
+      <c r="C427" s="10"/>
+      <c r="D427" s="10"/>
+    </row>
+    <row r="428" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D428" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A432" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A433" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A434" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A435" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A436" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A437" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A438" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A439" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A440" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A441" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A442" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A443" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A444" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A445" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="29">
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C346:D374"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B390:D390"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B64:D64"/>
     <mergeCell ref="B279:D279"/>
     <mergeCell ref="B72:D72"/>
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B138:D138"/>
     <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B215:D215"/>
     <mergeCell ref="B252:D252"/>
     <mergeCell ref="B162:D162"/>

--- a/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
+++ b/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="904">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3769,12 +3769,173 @@
     <t>string p_strKeyPublic, string p_strHashbyteDeformatter, string p_strDeformatterData</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>ItPachong.DoNet.Utilities.Download_Up</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownLoadHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownLoadHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载硬盘文件，提供下载 支持大文件、续传、速度限制、资源占用小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpRequest _request
+HttpResponse _response
+string _fileName
+string _fullPath
+long _speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DownLoad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string fileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分块下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string fileName
+long blockSize = 204800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web文件下载帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>W</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eb文件上传帮助类</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片(gif &amp; jpeg)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileUpload posPhotoUpload
+string saveFileName
+string imagePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[] binData
+string fileName
+string fileType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadFile</t>
+  </si>
+  <si>
+    <t>string filePath
+int maxSize
+string[] fileType
+HtmlInputFile targetFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UploadFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filePath
+int maxSize
+string[] fileType
+HtmlInputFile TargetFile
+out string saveFileName
+out int fileSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filePath
+int maxSize
+string[] fileType
+string filename
+HtmlInputFile TargetFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ploadHelper</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3844,6 +4005,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3924,11 +4093,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4212,10 +4381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4682,12 +4851,35 @@
       </c>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
+    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>888</v>
+      </c>
       <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>875</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="E32" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4720,6 +4912,8 @@
     <hyperlink ref="C28" location="函数描述!B405" display="HashEncode"/>
     <hyperlink ref="C29" location="函数描述!B411" display="MySecurity"/>
     <hyperlink ref="C30" location="函数描述!B427" display="RSACryption"/>
+    <hyperlink ref="C31" location="函数描述!B448" display="DownLoadHelper"/>
+    <hyperlink ref="C32" location="函数描述!B455" display="UploadHelper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4728,10 +4922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D445"/>
+  <dimension ref="A1:D461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" workbookViewId="0">
-      <selection activeCell="B427" sqref="B427:D427"/>
+    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
+      <selection activeCell="B455" sqref="B455:D455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8435,8 +8629,8 @@
       <c r="B308" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="C308" s="11"/>
-      <c r="D308" s="11"/>
+      <c r="C308" s="12"/>
+      <c r="D308" s="12"/>
     </row>
     <row r="309" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
@@ -8899,10 +9093,10 @@
       <c r="B346" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C346" s="12" t="s">
+      <c r="C346" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="D346" s="12"/>
+      <c r="D346" s="11"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
@@ -8911,8 +9105,8 @@
       <c r="B347" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C347" s="12"/>
-      <c r="D347" s="12"/>
+      <c r="C347" s="11"/>
+      <c r="D347" s="11"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
@@ -8921,8 +9115,8 @@
       <c r="B348" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C348" s="12"/>
-      <c r="D348" s="12"/>
+      <c r="C348" s="11"/>
+      <c r="D348" s="11"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
@@ -8931,8 +9125,8 @@
       <c r="B349" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C349" s="12"/>
-      <c r="D349" s="12"/>
+      <c r="C349" s="11"/>
+      <c r="D349" s="11"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
@@ -8941,8 +9135,8 @@
       <c r="B350" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C350" s="12"/>
-      <c r="D350" s="12"/>
+      <c r="C350" s="11"/>
+      <c r="D350" s="11"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
@@ -8951,8 +9145,8 @@
       <c r="B351" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C351" s="12"/>
-      <c r="D351" s="12"/>
+      <c r="C351" s="11"/>
+      <c r="D351" s="11"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
@@ -8961,8 +9155,8 @@
       <c r="B352" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C352" s="12"/>
-      <c r="D352" s="12"/>
+      <c r="C352" s="11"/>
+      <c r="D352" s="11"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
@@ -8971,8 +9165,8 @@
       <c r="B353" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C353" s="12"/>
-      <c r="D353" s="12"/>
+      <c r="C353" s="11"/>
+      <c r="D353" s="11"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
@@ -8981,8 +9175,8 @@
       <c r="B354" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C354" s="12"/>
-      <c r="D354" s="12"/>
+      <c r="C354" s="11"/>
+      <c r="D354" s="11"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
@@ -8991,8 +9185,8 @@
       <c r="B355" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C355" s="12"/>
-      <c r="D355" s="12"/>
+      <c r="C355" s="11"/>
+      <c r="D355" s="11"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
@@ -9001,8 +9195,8 @@
       <c r="B356" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C356" s="12"/>
-      <c r="D356" s="12"/>
+      <c r="C356" s="11"/>
+      <c r="D356" s="11"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
@@ -9011,8 +9205,8 @@
       <c r="B357" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C357" s="12"/>
-      <c r="D357" s="12"/>
+      <c r="C357" s="11"/>
+      <c r="D357" s="11"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
@@ -9021,8 +9215,8 @@
       <c r="B358" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C358" s="12"/>
-      <c r="D358" s="12"/>
+      <c r="C358" s="11"/>
+      <c r="D358" s="11"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
@@ -9031,8 +9225,8 @@
       <c r="B359" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C359" s="12"/>
-      <c r="D359" s="12"/>
+      <c r="C359" s="11"/>
+      <c r="D359" s="11"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
@@ -9041,8 +9235,8 @@
       <c r="B360" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C360" s="12"/>
-      <c r="D360" s="12"/>
+      <c r="C360" s="11"/>
+      <c r="D360" s="11"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
@@ -9051,8 +9245,8 @@
       <c r="B361" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C361" s="12"/>
-      <c r="D361" s="12"/>
+      <c r="C361" s="11"/>
+      <c r="D361" s="11"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
@@ -9061,8 +9255,8 @@
       <c r="B362" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C362" s="12"/>
-      <c r="D362" s="12"/>
+      <c r="C362" s="11"/>
+      <c r="D362" s="11"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
@@ -9071,8 +9265,8 @@
       <c r="B363" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C363" s="12"/>
-      <c r="D363" s="12"/>
+      <c r="C363" s="11"/>
+      <c r="D363" s="11"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
@@ -9081,8 +9275,8 @@
       <c r="B364" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C364" s="12"/>
-      <c r="D364" s="12"/>
+      <c r="C364" s="11"/>
+      <c r="D364" s="11"/>
     </row>
     <row r="365" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
@@ -9091,8 +9285,8 @@
       <c r="B365" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C365" s="12"/>
-      <c r="D365" s="12"/>
+      <c r="C365" s="11"/>
+      <c r="D365" s="11"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
@@ -9101,8 +9295,8 @@
       <c r="B366" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
+      <c r="C366" s="11"/>
+      <c r="D366" s="11"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
@@ -9111,8 +9305,8 @@
       <c r="B367" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C367" s="12"/>
-      <c r="D367" s="12"/>
+      <c r="C367" s="11"/>
+      <c r="D367" s="11"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
@@ -9121,8 +9315,8 @@
       <c r="B368" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C368" s="12"/>
-      <c r="D368" s="12"/>
+      <c r="C368" s="11"/>
+      <c r="D368" s="11"/>
     </row>
     <row r="369" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
@@ -9131,8 +9325,8 @@
       <c r="B369" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C369" s="12"/>
-      <c r="D369" s="12"/>
+      <c r="C369" s="11"/>
+      <c r="D369" s="11"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
@@ -9141,8 +9335,8 @@
       <c r="B370" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C370" s="12"/>
-      <c r="D370" s="12"/>
+      <c r="C370" s="11"/>
+      <c r="D370" s="11"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
@@ -9151,8 +9345,8 @@
       <c r="B371" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C371" s="12"/>
-      <c r="D371" s="12"/>
+      <c r="C371" s="11"/>
+      <c r="D371" s="11"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
@@ -9161,8 +9355,8 @@
       <c r="B372" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C372" s="12"/>
-      <c r="D372" s="12"/>
+      <c r="C372" s="11"/>
+      <c r="D372" s="11"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
@@ -9171,8 +9365,8 @@
       <c r="B373" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C373" s="12"/>
-      <c r="D373" s="12"/>
+      <c r="C373" s="11"/>
+      <c r="D373" s="11"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
@@ -9181,8 +9375,8 @@
       <c r="B374" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C374" s="12"/>
-      <c r="D374" s="12"/>
+      <c r="C374" s="11"/>
+      <c r="D374" s="11"/>
     </row>
     <row r="377" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
@@ -9986,21 +10180,170 @@
         <v>826</v>
       </c>
     </row>
+    <row r="448" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A448" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B448" s="10" t="s">
+        <v>877</v>
+      </c>
+      <c r="C448" s="10"/>
+      <c r="D448" s="10"/>
+    </row>
+    <row r="449" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D449" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A450" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A451" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A452" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A455" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B455" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="C455" s="10"/>
+      <c r="D455" s="10"/>
+    </row>
+    <row r="456" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A456" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D456" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A457" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A458" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A459" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A460" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A461" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C346:D374"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B390:D390"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
+  <mergeCells count="31">
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="B455:D455"/>
     <mergeCell ref="B308:D308"/>
     <mergeCell ref="B335:D335"/>
     <mergeCell ref="B40:D40"/>
@@ -10017,6 +10360,19 @@
     <mergeCell ref="B162:D162"/>
     <mergeCell ref="B192:D192"/>
     <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C346:D374"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B390:D390"/>
+    <mergeCell ref="B398:D398"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
+++ b/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="950">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3928,6 +3928,239 @@
       </rPr>
       <t>ploadHelper</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tPachong.DoNet.Utilities.Excel</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Excel帮助类,主要包括以下内容(注：因考虑到并发的原因，该类下所有方法没有设置为static)
+    1、对Excel文件对象的基本操作：
+        1.1、获取Excel连接字符串；
+        1.2、获取Excel工作表名；
+    2、数据基本操作：
+        2.1、Excel数据导入为DataSet对象；
+        2.2、DataSet对象和DataTable对象数据导出为Excel文件；
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExcelHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xcelHelper</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetExcelConnectionString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Excel连接字符串(默认：IMEX=1（导入模式）的情况）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string excelPath
+bool header
+ExcelType eType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回Excel连接字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string excelPath
+bool header
+ExcelType eType
+IMEXType imex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetExcelTablesName</t>
+  </si>
+  <si>
+    <t>获取Excel各个Sheet名称(默认：第一行为列名)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string excelPath
+ExcelType eType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetExcelTablesName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Excel各个Sheet名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string connectString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OleDbConnection connection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetExcelFirstTableName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Excel第一个Sheet名称(默认：第一行为列名)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Excel第一个Sheet名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string connectionString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetColumnsList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Excel文件中指定Sheet名称的列(默认：第一行为列名)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string excelPath
+ExcelType eType
+string tableName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel2DataSet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel导入为DataSet对象实体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string excelPath
+string tableName
+bool header
+ExcelType eType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string connectionString
+string tableName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSet2Excel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSet对象实体类的所有DataTable对象导出到指定的Excel文件中（XML格式方式实现）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSet source
+string fileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable2Excel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable对象导出到指定的Excel文件中（OleDb方式实现）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dataTable
+string fileName
+ExcelType eType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebExportExcel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web网页相关类型导出为Excel文件
+    1、将整个网页导出到Excel
+    2、将GridView数据导出到Excel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebExportExcel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebPageExportToExcel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将网页导出到Excel（保存为2003格式）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strContent
+string fileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridViewExportToExcel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将GridView数据导出到Excel（保存为2003格式）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridView obj</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4093,11 +4326,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4381,10 +4614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4880,6 +5113,36 @@
         <v>889</v>
       </c>
       <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>904</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>942</v>
+      </c>
+      <c r="E34" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4914,6 +5177,8 @@
     <hyperlink ref="C30" location="函数描述!B427" display="RSACryption"/>
     <hyperlink ref="C31" location="函数描述!B448" display="DownLoadHelper"/>
     <hyperlink ref="C32" location="函数描述!B455" display="UploadHelper"/>
+    <hyperlink ref="C33" location="函数描述!B464" display="ExcelHelper"/>
+    <hyperlink ref="C34" location="函数描述!B483" display="WebExportExcel"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4922,10 +5187,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D461"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A454" workbookViewId="0">
-      <selection activeCell="B455" sqref="B455:D455"/>
+    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+      <selection activeCell="B483" sqref="B483:D483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8629,8 +8894,8 @@
       <c r="B308" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="C308" s="12"/>
-      <c r="D308" s="12"/>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
     </row>
     <row r="309" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
@@ -9093,10 +9358,10 @@
       <c r="B346" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C346" s="11" t="s">
+      <c r="C346" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="D346" s="11"/>
+      <c r="D346" s="12"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
@@ -9105,8 +9370,8 @@
       <c r="B347" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C347" s="11"/>
-      <c r="D347" s="11"/>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
@@ -9115,8 +9380,8 @@
       <c r="B348" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C348" s="11"/>
-      <c r="D348" s="11"/>
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
@@ -9125,8 +9390,8 @@
       <c r="B349" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C349" s="11"/>
-      <c r="D349" s="11"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
@@ -9135,8 +9400,8 @@
       <c r="B350" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C350" s="11"/>
-      <c r="D350" s="11"/>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
@@ -9145,8 +9410,8 @@
       <c r="B351" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C351" s="11"/>
-      <c r="D351" s="11"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
@@ -9155,8 +9420,8 @@
       <c r="B352" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C352" s="11"/>
-      <c r="D352" s="11"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
@@ -9165,8 +9430,8 @@
       <c r="B353" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C353" s="11"/>
-      <c r="D353" s="11"/>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
@@ -9175,8 +9440,8 @@
       <c r="B354" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C354" s="11"/>
-      <c r="D354" s="11"/>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
@@ -9185,8 +9450,8 @@
       <c r="B355" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C355" s="11"/>
-      <c r="D355" s="11"/>
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
@@ -9195,8 +9460,8 @@
       <c r="B356" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C356" s="11"/>
-      <c r="D356" s="11"/>
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
@@ -9205,8 +9470,8 @@
       <c r="B357" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C357" s="11"/>
-      <c r="D357" s="11"/>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
@@ -9215,8 +9480,8 @@
       <c r="B358" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C358" s="11"/>
-      <c r="D358" s="11"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
@@ -9225,8 +9490,8 @@
       <c r="B359" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C359" s="11"/>
-      <c r="D359" s="11"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
@@ -9235,8 +9500,8 @@
       <c r="B360" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C360" s="11"/>
-      <c r="D360" s="11"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
@@ -9245,8 +9510,8 @@
       <c r="B361" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C361" s="11"/>
-      <c r="D361" s="11"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
@@ -9255,8 +9520,8 @@
       <c r="B362" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C362" s="11"/>
-      <c r="D362" s="11"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
@@ -9265,8 +9530,8 @@
       <c r="B363" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C363" s="11"/>
-      <c r="D363" s="11"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
@@ -9275,8 +9540,8 @@
       <c r="B364" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C364" s="11"/>
-      <c r="D364" s="11"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
     </row>
     <row r="365" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
@@ -9285,8 +9550,8 @@
       <c r="B365" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C365" s="11"/>
-      <c r="D365" s="11"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
@@ -9295,8 +9560,8 @@
       <c r="B366" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C366" s="11"/>
-      <c r="D366" s="11"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
@@ -9305,8 +9570,8 @@
       <c r="B367" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C367" s="11"/>
-      <c r="D367" s="11"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
@@ -9315,8 +9580,8 @@
       <c r="B368" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C368" s="11"/>
-      <c r="D368" s="11"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
     </row>
     <row r="369" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
@@ -9325,8 +9590,8 @@
       <c r="B369" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C369" s="11"/>
-      <c r="D369" s="11"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
@@ -9335,8 +9600,8 @@
       <c r="B370" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C370" s="11"/>
-      <c r="D370" s="11"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
@@ -9345,8 +9610,8 @@
       <c r="B371" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C371" s="11"/>
-      <c r="D371" s="11"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
@@ -9355,8 +9620,8 @@
       <c r="B372" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C372" s="11"/>
-      <c r="D372" s="11"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
@@ -9365,8 +9630,8 @@
       <c r="B373" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C373" s="11"/>
-      <c r="D373" s="11"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
@@ -9375,8 +9640,8 @@
       <c r="B374" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C374" s="11"/>
-      <c r="D374" s="11"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
     </row>
     <row r="377" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
@@ -10340,8 +10605,311 @@
         <v>894</v>
       </c>
     </row>
+    <row r="464" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A464" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B464" s="10" t="s">
+        <v>906</v>
+      </c>
+      <c r="C464" s="10"/>
+      <c r="D464" s="10"/>
+    </row>
+    <row r="465" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A465" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D465" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A466" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A467" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A468" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A469" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A470" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A471" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A472" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A473" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A474" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A475" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A476" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A477" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A478" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A479" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A480" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A483" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B483" s="10" t="s">
+        <v>943</v>
+      </c>
+      <c r="C483" s="10"/>
+      <c r="D483" s="10"/>
+    </row>
+    <row r="484" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A484" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C484" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D484" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A485" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A486" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="33">
+    <mergeCell ref="B464:D464"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C346:D374"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B390:D390"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B448:D448"/>
     <mergeCell ref="B455:D455"/>
     <mergeCell ref="B308:D308"/>
@@ -10358,21 +10926,6 @@
     <mergeCell ref="B215:D215"/>
     <mergeCell ref="B252:D252"/>
     <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C346:D374"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B390:D390"/>
-    <mergeCell ref="B398:D398"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
+++ b/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1152">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4161,6 +4161,869 @@
   </si>
   <si>
     <t>GridView obj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tPachong.DoNet.Utilities.File</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirFileHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录和文件帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirFileHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsExistDirectory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测指定目录是否存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string directoryPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsExistFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测指定文件是否存在,如果存在则返回true。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileNames</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定目录中所有文件列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDirectories</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定目录中所有子目录列表,若要搜索嵌套的子目录列表,请使用重载方法.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定目录及子目录中所有文件列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string directoryPath
+string searchPattern
+bool isSearchChild</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsEmptyDirectory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测指定目录是否为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测指定目录中是否存在指定的文件,若要搜索子目录请使用重载方法.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string directoryPath
+string searchPattern</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测指定目录中是否存在指定的文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建目录</t>
+  </si>
+  <si>
+    <t>string dirpath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string dir</t>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string file</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string dir
+string pagestr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动文件(剪贴--粘贴)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string dir1
+string dir2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string oldFile
+string newFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDateDir</t>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDateFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间得到文件名，格式：HHmmssff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据时间得到目录名，格式：yyyyMMdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyFolder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制文件夹(递归)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string varFromDirectory
+string varToDirectory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExistsFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">检查文件,如果文件不存在则创建  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string FilePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirExists</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查文件是否存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string dirname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteFolderFiles</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定文件夹对应其他文件夹里的文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从路径中抽取文件名(包括扩展名)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从路径中抽取文件名(是否包含扩展名)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string str
+bool noExt = false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDirectory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个目录</t>
+  </si>
+  <si>
+    <t>创建一个文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个文件,并将字节流写入文件。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filePath
+byte[] buffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetLineCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文本文件的行数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取一个文件的长度,单位为Byte</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定目录及子目录中所有子目录列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向文本文件中写入内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filePath
+string text
+Encoding encoding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppendText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向文本文件的尾部追加内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filePath
+string content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string sourceFilePath
+string destFilePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将源文件的内容复制到目标文件中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将文件移动到指定目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string sourceFilePath
+string descDirectoryPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileNameNoExtension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从文件的绝对路径中获取文件名( 不包含扩展名 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetExtension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从文件的绝对路径中获取扩展名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileExtension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从文件名中抽取扩展名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearDirectory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空指定目录下所有文件及子目录,但该目录依然保存.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清空文件内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteDirectory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定目录及其所有子目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FixDirPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修正路径右边缺少"/"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckSaveDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建目录,如果父目录不存在,将一级级生成.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string sCheckPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMapPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得当前绝对路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileNamePostfix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">从文件名中加后缀字符,组成新文件名,用于缩略图
+例如:getFileNamePostfix("090801.gif","s") return "090801s.gif" </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string sFileName
+string sPostfix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFilePathPostfix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">从文件名中加后缀字符,组成新文件名,用于缩略图,(包括路径)
+例如:getFilePathPostfix("090801.gif","s") return "090801s.gif" </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelPicFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除图片文件,连同相关的大型图,中型图,微型图一并删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filename</t>
+  </si>
+  <si>
+    <t>string filename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FmtFileSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回文件Size的字符格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long bytes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FmtFileSize2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int kb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回文件Size的字符格式（注意：传入参数为kb）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFilePath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从(路径+文件名)中抽取路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRndFileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得随机文件名(原文件名),用yyMMddhhmmss + (xxx),共15位数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string fileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件读写操作帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileOperateHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ileOperateHelper</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteTxt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本内容写入文本文件（字符集：gb2312</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string FileName
+string Content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteLog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写日志</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string fileName
+string content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadTxt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读文本文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetPostfixStr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得文件后缀名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteFile</t>
+  </si>
+  <si>
+    <t>写文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Path
+string Strings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReadFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileAdd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Path
+string strings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppendFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加文件(文本),如果该文件不存在就创建</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filebody
+string filename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileCoppy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string OrignFile
+string NewFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileDel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileMove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FolderCreate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在当前目录下创建目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string OrignFolder
+string NewFloder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文件夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileCreate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteFolder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>递归删除文件夹目录及文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string dir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将指定文件夹下面的所有内容copy到目标文件夹下面 果目标文件夹为只读属性就会报错。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string srcPath
+string aimPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFoldAll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定文件夹下所有子目录及文件(树形)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListTreeShow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定文件夹下所有子目录及文件函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectoryInfo theDir
+int nLevel
+string Rn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Path
+string DropName
+string tplPat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定文件夹下所有子目录及文件(下拉框形)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectoryInfo theDir
+int nLevel
+string Rn
+string tplPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDirectoryLength</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件夹大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string dirPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileAttibe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定文件详细属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INIFileHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INI文件帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>INIFileHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniWriteValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写INI文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Section
+string Key
+string Value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniReadValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取INI文件(返回字符串）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Section
+string Key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IniReadValues</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取INI文件（返回字节数组）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string section
+string key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearAllSection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除ini文件下所有段落</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearSection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除ini文件下personal段落下的所有键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Section</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4326,11 +5189,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4614,10 +5477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5143,6 +6006,51 @@
         <v>942</v>
       </c>
       <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>952</v>
+      </c>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>950</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E37" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5179,6 +6087,9 @@
     <hyperlink ref="C32" location="函数描述!B455" display="UploadHelper"/>
     <hyperlink ref="C33" location="函数描述!B464" display="ExcelHelper"/>
     <hyperlink ref="C34" location="函数描述!B483" display="WebExportExcel"/>
+    <hyperlink ref="C35" location="函数描述!B489" display="DirFileHelper"/>
+    <hyperlink ref="C36" location="函数描述!B541" display="FileOperateHelper"/>
+    <hyperlink ref="C37" location="函数描述!B567" display="INIFileHelper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5187,10 +6098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
-      <selection activeCell="B483" sqref="B483:D483"/>
+    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
+      <selection activeCell="B577" sqref="B577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8894,8 +9805,8 @@
       <c r="B308" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="C308" s="11"/>
-      <c r="D308" s="11"/>
+      <c r="C308" s="12"/>
+      <c r="D308" s="12"/>
     </row>
     <row r="309" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
@@ -9358,10 +10269,10 @@
       <c r="B346" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C346" s="12" t="s">
+      <c r="C346" s="11" t="s">
         <v>771</v>
       </c>
-      <c r="D346" s="12"/>
+      <c r="D346" s="11"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
@@ -9370,8 +10281,8 @@
       <c r="B347" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C347" s="12"/>
-      <c r="D347" s="12"/>
+      <c r="C347" s="11"/>
+      <c r="D347" s="11"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
@@ -9380,8 +10291,8 @@
       <c r="B348" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C348" s="12"/>
-      <c r="D348" s="12"/>
+      <c r="C348" s="11"/>
+      <c r="D348" s="11"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
@@ -9390,8 +10301,8 @@
       <c r="B349" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C349" s="12"/>
-      <c r="D349" s="12"/>
+      <c r="C349" s="11"/>
+      <c r="D349" s="11"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
@@ -9400,8 +10311,8 @@
       <c r="B350" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C350" s="12"/>
-      <c r="D350" s="12"/>
+      <c r="C350" s="11"/>
+      <c r="D350" s="11"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
@@ -9410,8 +10321,8 @@
       <c r="B351" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C351" s="12"/>
-      <c r="D351" s="12"/>
+      <c r="C351" s="11"/>
+      <c r="D351" s="11"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
@@ -9420,8 +10331,8 @@
       <c r="B352" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C352" s="12"/>
-      <c r="D352" s="12"/>
+      <c r="C352" s="11"/>
+      <c r="D352" s="11"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
@@ -9430,8 +10341,8 @@
       <c r="B353" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C353" s="12"/>
-      <c r="D353" s="12"/>
+      <c r="C353" s="11"/>
+      <c r="D353" s="11"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
@@ -9440,8 +10351,8 @@
       <c r="B354" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C354" s="12"/>
-      <c r="D354" s="12"/>
+      <c r="C354" s="11"/>
+      <c r="D354" s="11"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
@@ -9450,8 +10361,8 @@
       <c r="B355" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C355" s="12"/>
-      <c r="D355" s="12"/>
+      <c r="C355" s="11"/>
+      <c r="D355" s="11"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
@@ -9460,8 +10371,8 @@
       <c r="B356" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C356" s="12"/>
-      <c r="D356" s="12"/>
+      <c r="C356" s="11"/>
+      <c r="D356" s="11"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
@@ -9470,8 +10381,8 @@
       <c r="B357" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C357" s="12"/>
-      <c r="D357" s="12"/>
+      <c r="C357" s="11"/>
+      <c r="D357" s="11"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
@@ -9480,8 +10391,8 @@
       <c r="B358" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C358" s="12"/>
-      <c r="D358" s="12"/>
+      <c r="C358" s="11"/>
+      <c r="D358" s="11"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
@@ -9490,8 +10401,8 @@
       <c r="B359" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C359" s="12"/>
-      <c r="D359" s="12"/>
+      <c r="C359" s="11"/>
+      <c r="D359" s="11"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
@@ -9500,8 +10411,8 @@
       <c r="B360" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C360" s="12"/>
-      <c r="D360" s="12"/>
+      <c r="C360" s="11"/>
+      <c r="D360" s="11"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
@@ -9510,8 +10421,8 @@
       <c r="B361" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C361" s="12"/>
-      <c r="D361" s="12"/>
+      <c r="C361" s="11"/>
+      <c r="D361" s="11"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
@@ -9520,8 +10431,8 @@
       <c r="B362" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C362" s="12"/>
-      <c r="D362" s="12"/>
+      <c r="C362" s="11"/>
+      <c r="D362" s="11"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
@@ -9530,8 +10441,8 @@
       <c r="B363" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C363" s="12"/>
-      <c r="D363" s="12"/>
+      <c r="C363" s="11"/>
+      <c r="D363" s="11"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
@@ -9540,8 +10451,8 @@
       <c r="B364" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C364" s="12"/>
-      <c r="D364" s="12"/>
+      <c r="C364" s="11"/>
+      <c r="D364" s="11"/>
     </row>
     <row r="365" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
@@ -9550,8 +10461,8 @@
       <c r="B365" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C365" s="12"/>
-      <c r="D365" s="12"/>
+      <c r="C365" s="11"/>
+      <c r="D365" s="11"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
@@ -9560,8 +10471,8 @@
       <c r="B366" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C366" s="12"/>
-      <c r="D366" s="12"/>
+      <c r="C366" s="11"/>
+      <c r="D366" s="11"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
@@ -9570,8 +10481,8 @@
       <c r="B367" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C367" s="12"/>
-      <c r="D367" s="12"/>
+      <c r="C367" s="11"/>
+      <c r="D367" s="11"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
@@ -9580,8 +10491,8 @@
       <c r="B368" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C368" s="12"/>
-      <c r="D368" s="12"/>
+      <c r="C368" s="11"/>
+      <c r="D368" s="11"/>
     </row>
     <row r="369" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
@@ -9590,8 +10501,8 @@
       <c r="B369" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C369" s="12"/>
-      <c r="D369" s="12"/>
+      <c r="C369" s="11"/>
+      <c r="D369" s="11"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
@@ -9600,8 +10511,8 @@
       <c r="B370" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C370" s="12"/>
-      <c r="D370" s="12"/>
+      <c r="C370" s="11"/>
+      <c r="D370" s="11"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
@@ -9610,8 +10521,8 @@
       <c r="B371" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C371" s="12"/>
-      <c r="D371" s="12"/>
+      <c r="C371" s="11"/>
+      <c r="D371" s="11"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
@@ -9620,8 +10531,8 @@
       <c r="B372" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C372" s="12"/>
-      <c r="D372" s="12"/>
+      <c r="C372" s="11"/>
+      <c r="D372" s="11"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
@@ -9630,8 +10541,8 @@
       <c r="B373" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C373" s="12"/>
-      <c r="D373" s="12"/>
+      <c r="C373" s="11"/>
+      <c r="D373" s="11"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
@@ -9640,8 +10551,8 @@
       <c r="B374" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C374" s="12"/>
-      <c r="D374" s="12"/>
+      <c r="C374" s="11"/>
+      <c r="D374" s="11"/>
     </row>
     <row r="377" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
@@ -10891,27 +11802,1133 @@
         <v>937</v>
       </c>
     </row>
+    <row r="489" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A489" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B489" s="10" t="s">
+        <v>953</v>
+      </c>
+      <c r="C489" s="10"/>
+      <c r="D489" s="10"/>
+    </row>
+    <row r="490" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A490" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D490" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A491" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A492" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A493" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A494" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A495" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A496" s="1" t="s">
+        <v>968</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A497" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A498" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A501" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A502" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A503" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A504" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A507" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A508" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A509" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A510" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A511" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A512" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A513" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A514" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A515" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A516" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A517" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A518" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A519" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A520" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A521" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A522" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A523" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A524" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A525" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A526" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A527" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A528" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A529" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A530" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A531" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A532" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A533" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A534" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A535" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A536" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A537" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A538" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A541" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B541" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C541" s="10"/>
+      <c r="D541" s="10"/>
+    </row>
+    <row r="542" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A542" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D542" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A543" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D543" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A544" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D544" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A545" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A546" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A547" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A548" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A549" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A550" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A551" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A552" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D552" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A553" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D553" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A554" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D554" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A555" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A556" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D556" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A557" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D557" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="558" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A558" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D558" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A559" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D559" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="560" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A560" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D560" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="561" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A561" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D561" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="562" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A562" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D562" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A563" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D563" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A564" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D564" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="567" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A567" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B567" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C567" s="10"/>
+      <c r="D567" s="10"/>
+    </row>
+    <row r="568" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A568" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C568" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D568" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="569" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A569" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D569" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="570" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A570" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D570" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="571" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A571" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="D571" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A572" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="D572" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A573" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D573" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B464:D464"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C346:D374"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B390:D390"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B448:D448"/>
-    <mergeCell ref="B455:D455"/>
+  <mergeCells count="36">
+    <mergeCell ref="B489:D489"/>
+    <mergeCell ref="B541:D541"/>
+    <mergeCell ref="B567:D567"/>
     <mergeCell ref="B308:D308"/>
     <mergeCell ref="B335:D335"/>
     <mergeCell ref="B40:D40"/>
@@ -10926,6 +12943,25 @@
     <mergeCell ref="B215:D215"/>
     <mergeCell ref="B252:D252"/>
     <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C346:D374"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B390:D390"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="B464:D464"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="B455:D455"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
+++ b/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1206">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -5024,6 +5024,255 @@
   </si>
   <si>
     <t>string Section</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tPachong.DoNet.Utilities.FormatDate</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期时间帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>imeHelper</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnDateFormat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回每月的第一天和最后一天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int month
+out string firstDay
+out string lastDay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFormatDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将时间格式化成 年月日 的形式,如果时间为null，返回当前系统时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime dt
+char Separator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFormatTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将时间格式化成 时分秒 的形式,如果时间为null，返回当前系统时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SecondToMinute</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把秒转换成分钟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int Second</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMonthLastDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int year
+int month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateDiff</t>
+  </si>
+  <si>
+    <t>DateDiff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>某年某月最后一天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime DateTime1
+DateTime DateTime2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string sInterval
+DateTime StartDate
+DateTime EndDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间差：时间比较函数，返回两个日期相差几秒、几分钟、几小时或几天
+&lt;param name="sInterval"&gt; y = 年, m =月, d = 日, w = 周, q = 季, h = 时, n = 分钟, s = 秒 &lt;/param&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateDiff2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得两个日期的间隔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeSpan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormatDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化日期时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime dateTime1
+string dateMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetRandomTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到随机日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime time1
+DateTime time2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把字符串转成日期型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把对象转成日期型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>object obj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 Boolean 值指明某表达式是否可以转换为时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string timeval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDateTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回 Boolean 值指明某表达式是否可以转换为日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>object str</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetMinDate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统默认最少时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5189,11 +5438,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5477,10 +5726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6051,6 +6300,21 @@
         <v>1135</v>
       </c>
       <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E38" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6090,6 +6354,7 @@
     <hyperlink ref="C35" location="函数描述!B489" display="DirFileHelper"/>
     <hyperlink ref="C36" location="函数描述!B541" display="FileOperateHelper"/>
     <hyperlink ref="C37" location="函数描述!B567" display="INIFileHelper"/>
+    <hyperlink ref="C38" location="函数描述!B576" display="TimeHelper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6098,10 +6363,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D573"/>
+  <dimension ref="A1:D593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A558" workbookViewId="0">
-      <selection activeCell="B577" sqref="B577"/>
+    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
+      <selection activeCell="A578" sqref="A578:D593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9805,8 +10070,8 @@
       <c r="B308" s="10" t="s">
         <v>692</v>
       </c>
-      <c r="C308" s="12"/>
-      <c r="D308" s="12"/>
+      <c r="C308" s="11"/>
+      <c r="D308" s="11"/>
     </row>
     <row r="309" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
@@ -10269,10 +10534,10 @@
       <c r="B346" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="C346" s="11" t="s">
+      <c r="C346" s="12" t="s">
         <v>771</v>
       </c>
-      <c r="D346" s="11"/>
+      <c r="D346" s="12"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
@@ -10281,8 +10546,8 @@
       <c r="B347" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="C347" s="11"/>
-      <c r="D347" s="11"/>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
@@ -10291,8 +10556,8 @@
       <c r="B348" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="C348" s="11"/>
-      <c r="D348" s="11"/>
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
@@ -10301,8 +10566,8 @@
       <c r="B349" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="C349" s="11"/>
-      <c r="D349" s="11"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
@@ -10311,8 +10576,8 @@
       <c r="B350" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C350" s="11"/>
-      <c r="D350" s="11"/>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
@@ -10321,8 +10586,8 @@
       <c r="B351" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="C351" s="11"/>
-      <c r="D351" s="11"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
@@ -10331,8 +10596,8 @@
       <c r="B352" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C352" s="11"/>
-      <c r="D352" s="11"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
@@ -10341,8 +10606,8 @@
       <c r="B353" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="C353" s="11"/>
-      <c r="D353" s="11"/>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
@@ -10351,8 +10616,8 @@
       <c r="B354" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C354" s="11"/>
-      <c r="D354" s="11"/>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
@@ -10361,8 +10626,8 @@
       <c r="B355" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C355" s="11"/>
-      <c r="D355" s="11"/>
+      <c r="C355" s="12"/>
+      <c r="D355" s="12"/>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
@@ -10371,8 +10636,8 @@
       <c r="B356" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C356" s="11"/>
-      <c r="D356" s="11"/>
+      <c r="C356" s="12"/>
+      <c r="D356" s="12"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
@@ -10381,8 +10646,8 @@
       <c r="B357" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="C357" s="11"/>
-      <c r="D357" s="11"/>
+      <c r="C357" s="12"/>
+      <c r="D357" s="12"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
@@ -10391,8 +10656,8 @@
       <c r="B358" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="C358" s="11"/>
-      <c r="D358" s="11"/>
+      <c r="C358" s="12"/>
+      <c r="D358" s="12"/>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
@@ -10401,8 +10666,8 @@
       <c r="B359" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="C359" s="11"/>
-      <c r="D359" s="11"/>
+      <c r="C359" s="12"/>
+      <c r="D359" s="12"/>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
@@ -10411,8 +10676,8 @@
       <c r="B360" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="C360" s="11"/>
-      <c r="D360" s="11"/>
+      <c r="C360" s="12"/>
+      <c r="D360" s="12"/>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
@@ -10421,8 +10686,8 @@
       <c r="B361" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="C361" s="11"/>
-      <c r="D361" s="11"/>
+      <c r="C361" s="12"/>
+      <c r="D361" s="12"/>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
@@ -10431,8 +10696,8 @@
       <c r="B362" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="C362" s="11"/>
-      <c r="D362" s="11"/>
+      <c r="C362" s="12"/>
+      <c r="D362" s="12"/>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
@@ -10441,8 +10706,8 @@
       <c r="B363" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="C363" s="11"/>
-      <c r="D363" s="11"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
@@ -10451,8 +10716,8 @@
       <c r="B364" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="C364" s="11"/>
-      <c r="D364" s="11"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
     </row>
     <row r="365" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
@@ -10461,8 +10726,8 @@
       <c r="B365" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="C365" s="11"/>
-      <c r="D365" s="11"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
@@ -10471,8 +10736,8 @@
       <c r="B366" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="C366" s="11"/>
-      <c r="D366" s="11"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
@@ -10481,8 +10746,8 @@
       <c r="B367" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="C367" s="11"/>
-      <c r="D367" s="11"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
@@ -10491,8 +10756,8 @@
       <c r="B368" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="C368" s="11"/>
-      <c r="D368" s="11"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
     </row>
     <row r="369" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
@@ -10501,8 +10766,8 @@
       <c r="B369" s="1" t="s">
         <v>760</v>
       </c>
-      <c r="C369" s="11"/>
-      <c r="D369" s="11"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
@@ -10511,8 +10776,8 @@
       <c r="B370" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="C370" s="11"/>
-      <c r="D370" s="11"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
@@ -10521,8 +10786,8 @@
       <c r="B371" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C371" s="11"/>
-      <c r="D371" s="11"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
@@ -10531,8 +10796,8 @@
       <c r="B372" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="C372" s="11"/>
-      <c r="D372" s="11"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
@@ -10541,8 +10806,8 @@
       <c r="B373" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="C373" s="11"/>
-      <c r="D373" s="11"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
@@ -10551,8 +10816,8 @@
       <c r="B374" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="C374" s="11"/>
-      <c r="D374" s="11"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
     </row>
     <row r="377" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
@@ -12924,13 +13189,263 @@
         <v>980</v>
       </c>
     </row>
+    <row r="576" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A576" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B576" s="10" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C576" s="10"/>
+      <c r="D576" s="10"/>
+    </row>
+    <row r="577" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A577" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B577" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C577" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D577" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="578" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A578" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D578" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="579" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A579" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D579" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="580" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A580" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="D580" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A581" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D581" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="582" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A582" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D582" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="583" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A583" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D583" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="584" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A584" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="585" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A585" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D585" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="586" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A586" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D586" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="587" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A587" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A588" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D588" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A589" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D589" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A590" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A591" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D591" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A592" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D592" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A593" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D593" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B489:D489"/>
-    <mergeCell ref="B541:D541"/>
-    <mergeCell ref="B567:D567"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B335:D335"/>
+  <mergeCells count="37">
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="B576:D576"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B34:D34"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="B49:D49"/>
     <mergeCell ref="B55:D55"/>
@@ -12945,11 +13460,11 @@
     <mergeCell ref="B162:D162"/>
     <mergeCell ref="B192:D192"/>
     <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B489:D489"/>
+    <mergeCell ref="B541:D541"/>
+    <mergeCell ref="B567:D567"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B335:D335"/>
     <mergeCell ref="B342:D342"/>
     <mergeCell ref="C346:D374"/>
     <mergeCell ref="B377:D377"/>
@@ -12961,7 +13476,6 @@
     <mergeCell ref="B411:D411"/>
     <mergeCell ref="B427:D427"/>
     <mergeCell ref="B448:D448"/>
-    <mergeCell ref="B455:D455"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
+++ b/ItPachong.DoNet.Utilities/ItPachong.DoNet.Utilites详细说明文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="类清单" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2078" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="1709">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3947,17 +3947,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Excel帮助类,主要包括以下内容(注：因考虑到并发的原因，该类下所有方法没有设置为static)
-    1、对Excel文件对象的基本操作：
-        1.1、获取Excel连接字符串；
-        1.2、获取Excel工作表名；
-    2、数据基本操作：
-        2.1、Excel数据导入为DataSet对象；
-        2.2、DataSet对象和DataTable对象数据导出为Excel文件；
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ExcelHelper</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5275,12 +5264,2351 @@
     <t>N/A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tPachong.DoNet.Utilities.FTP</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP客户端帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTPClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>建立FTP连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisConnect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭FTP连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetTransferType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置传输模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferType ttType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetTransferType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取传输模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransferType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得文件列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strMask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>newPutByGuid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储新的Guid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strFileName
+string strGuid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strFileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取文件信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名(如果新文件名与已有文件重名,将覆盖已有文件)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strOldFileName
+string strNewFileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载一批文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strFileNameMask
+string strFolder</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载一个文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strRemoteFileName
+string strFolder
+string strLocalFileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetNoBinary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Put</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传一批文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strFolder
+string strFileNameMask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传一个文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PutByGuid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MkDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strDirName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RmDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TPClient</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTPHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TP帮助类</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTPHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构造函数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string FtpServerIP
+string FtpRemotePath
+string FtpUserID
+string FtpPassword</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Download</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string filePath
+string fileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string fileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFilesDetailList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获取当前目录下明细(包含文件和文件夹)  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[ ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">获取当前目录下文件列表(不包括文件夹)  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileExist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">判断当前目录下指定的文件是否存在  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string RemoteFileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeDir</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建文件夹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string dirName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定文件大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更改文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string currentFilename
+string newFilename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MovieFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string currentFilename
+string newDirectory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GotoDirectory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换当前目录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string DirectoryName
+bool IsRoot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTPOperater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TP操作类</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTPOperater</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到文件列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string ftpFolder
+string ftpFileName
+string localFolder
+string localFileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddMSCFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string ftpFolder
+string ftpFileName
+string localFolder
+string localFileName
+string BscInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DelFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string ftpFolder
+string ftpFileName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PutFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileNoBinary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到FTP上文件信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanConnect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试FTP服务器是否可登陆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFileInfoConnected</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string ftpFolder
+string strMask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetFtpClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到FTP传输对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTPClient</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridViewHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItPachong.DoNet.Utilities.GridView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridView控件帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridViewHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GridView2DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从GridView的数据生成DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Web.UI.WebControls.GridView gv</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将集合类转换成DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IList list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDataTable&lt;T&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将泛型集合类转换成DataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IList&lt;T&gt; list
+params string[] propertyName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSelectedKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取grid选中的行中的key，多选时返回"xx, xxx, xxxx"这种格式数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FineUI.Grid grid
+bool isMemoryPaging = false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSelectedKeyArray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取grid选中的行中的key</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>object[ ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSelectedKeyIntArray</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[ ]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetSelectedKeyAll</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取grid选中的行中的key(表格中主键绑定多个字段时，返回的内容是object数组，里面的值是多个字段用逗号分隔的值，"["a, b, c", "d, e, f", "g, h, i"......]")</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tPachong.DoNet.Utilities.HttpHelper</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpCookieHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie操作帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpCookieHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCookieList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据字符生成Cookie列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string cookie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;CookieItem&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCookieValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据Key值得到Cookie值,Key不区分大小写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string Key
+string cookie</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookieFormat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化Cookie为标准格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string key
+string value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CookieItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Http连接操作帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetHtml</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据相传入的数据，得到相应页面数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpItem item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpItem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Http请求参考类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Http返回参数类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tPachong.DoNet.Utilities.Image</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片处理类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageClass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeThumbnail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生成缩略图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageWatermark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片水印处理方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>string originalImagePath
+string thumbnailPath
+int width
+int height
+string mode(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HW</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:高宽缩放;W:指定宽，高按比例缩放;H:指定高，宽按比例缩放;Cut:指定高宽裁剪)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string path
+string waterpath
+string location（LT、T、RT、LC、C、RC、LB、B）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LetterWatermark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字水印处理方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string path
+int size
+string letter
+Color color
+string location（LT、T、RT、LC、C、RC、LB、B）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整光暗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitmap mybm
+int width
+int height
+int val</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitmap</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RePic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反色处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitmap mybm
+int width
+int height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮雕处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitmap oldBitmap
+int Width
+int Height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResizeImage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉伸图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitmap bmp
+int newW
+int newH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FilPic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滤色处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RevPicLR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左右翻转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RevPicUD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上下翻转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string oldfile
+string newfile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string oldfile
+string newfile
+int width
+int height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>压缩指定尺寸，如果写的和图片大家一样表示大小不变，只是把图片压缩下一些</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BWPic</t>
+  </si>
+  <si>
+    <t>转换为黑白图片</t>
+  </si>
+  <si>
+    <t>GetFrames</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取图片中的各帧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string pPath
+string pSavedPath</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mageClass</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mageDown</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片下载类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageDown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveUrlPics</t>
+  </si>
+  <si>
+    <t>下载图片到本地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strHTML
+string path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FileValidation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片检测类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsAllowedExtension</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpPostedFile oFile
+FileExtension[] fileEx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSecureUploadPhoto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传前的图片是否可靠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpPostedFile oFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSecureUpfilePhoto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传后的图片是否安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string photoFile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImageUpload</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片上传类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tPachong.DoNet.Utilities.Internet_Url</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADSL重新连接、拨号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adsl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConnectionNotify ConnectionDelegate
+double interval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateEntry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int hWnd
+out string strError</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建条目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteEntry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除条目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strEntryName
+out string strError</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialUp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拨号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditEntry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑条目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int hWnd
+string strEntryName
+out string strError</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDefaultEntry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out string strEntry
+out string strError</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取默认条目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetEntries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到条目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out string[] strEntryName
+out string strError</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetEntryParams</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得入口参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strEntryName
+out string strPhoneNumber
+out string strUserName
+out string strPassword
+out bool bRememberPassword
+out string strError</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HangUp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>out string strError</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenameEntry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重命名输入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strOldEntry
+string strNewEntry
+out string strError</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetDefaultEntry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置默认条目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strEntry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetEntryParams</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置输入参数个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string strEntryName
+string strPhoneNumber
+string strUserName
+string strPassword
+bool bRememberPassword
+out string strError</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dsl</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IpHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetUserIp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得用户IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsIPAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否是IP地址格式 0.0.0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string str1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络操作相关的类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetValidPort</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查设置的端口号是否正确，并返回正确的端口号,无效端口号返回-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string port</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringToIPAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将字符串形式的IP地址转换成IPAddress对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string ip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPAddress</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalHostName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性：获取本机的计算机名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LANIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性：获取本机的局域网IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WANIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性：获取本机在Internet网络的广域网IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetClientIP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取远程客户机的IP地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket clientSocket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateIPEndPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string ip
+int port</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPEndPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个IPEndPoint对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTcpListener</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个自动分配IP和端口的TcpListener对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpListener</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建TcpListener对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateTcpSocket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个基于TCP协议的Socket对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateUdpSocket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个基于UDP协议的Socket对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetLocalPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取TcpListener对象的本地终结点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TcpListener tcpListener</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetLocalPoint_IP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取TcpListener对象的本地终结点的IP地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetLocalPoint_Port</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取TcpListener对象的本地终结点的端口号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Socket对象的本地终结点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Socket对象的本地终结点的IP地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取Socket对象的本地终结点的端口号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BindEndPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定终结点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket
+IPEndPoint endPoint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket
+string ip
+int por</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartListen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定Socket对象执行监听，默认允许的最大挂起连接数为100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket
+int port</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定Socket对象执行监听</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket
+int port
+int maxConnection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket
+string ip
+int port
+int maxConnection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接到基于TCP协议的服务器,连接成功返回true，否则返回false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket
+string ip
+int port</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendMsg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket
+byte[] msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以同步方式向指定的Socket对象发送消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用UTF8编码格式以同步方式向指定的Socket对象发送消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket
+string msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceiveMsg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以同步方式接收消息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Socket socket
+byte[] buffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以同步方式接收消息，并转换为UTF8编码格式的字符串,使用5000字节的默认缓冲区接收。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭基于Tcp协议的Socket对象</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendEmail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string receiveEmail
+string msgSubject
+string msgBody
+bool IsEnableSSL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送电子邮件,所有SMTP配置信息均在config配置文件中system.net节设置.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL的操作类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UrlHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base64Encrypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL的64位编码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string sourthUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base64Decrypt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL的64位解码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string eStr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsBase64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断是否是Base64字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddParam</t>
+  </si>
+  <si>
+    <t>添加URL参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string url
+string paramName
+string value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateParam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新URL参数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetDomain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析URL所属的域</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string fromUrl
+out string domain
+out string subDomain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParseUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析 url 字符串中的参数信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string url
+out string baseUrl
+out NameValueCollection nvc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>U</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rlHelper</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel帮助类,主要包括以下内容(注：因考虑到并发的原因，该类下所有方法没有设置为static)
+    1、对Excel文件对象的基本操作：
+        1.1、获取Excel连接字符串；
+        1.2、获取Excel工作表名；
+    2、数据基本操作：
+        2.1、Excel数据导入为DataSet对象；
+        2.2、DataSet对象和DataTable对象数据导出为Excel文件；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItPachong.DoNet.Utilities.JS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端脚本输出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertAndRedirect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出信息,并跳转指定页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string message
+string toURL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertAndGoHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出信息,并返回历史页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string message
+int value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Redirect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接跳转到指定的页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string toUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertAndParentUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出信息 并指定到父窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentRedirect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回到父窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string ToUrl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackHistory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回历史页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterScriptBlock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册脚本块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Web.UI.Page page
+string _ScriptString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面中弹出对话框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItPachong.DoNet.Utilities.JsAlert</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示消息提示对话框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Web.UI.Page page
+string msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowConfirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件点击 消息确认提示框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Web.UI.WebControls.WebControl Control
+string msg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowAndRedirect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示消息提示对话框，并进行页面跳转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Web.UI.Page page
+string msg
+string url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Web.UI.Page page
+string msg
+string url
+bool top</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResponseScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出自定义脚本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Web.UI.Page page
+string script</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowMessageBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面常用方法包装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowMessageBox</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowMG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示提示信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowMessage_link</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string message
+string linkurl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string title
+int width
+int height
+string message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string title
+int width
+int height
+string message
+int delayms
+int leftSpace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string title
+int width
+int height
+string message
+string linkurl
+int delayms 
+int leftSpace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowExceptionMessage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示异常信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception ex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetShowModalWindowScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回把指定链接地址显示模态窗口的脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string wid
+string title
+int width
+int height
+string url</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowModalWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>把指定链接地址显示模态窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowCilentModalWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为指定控件绑定前台脚本：显示模态窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string wid
+WebControl control
+string eventName
+string title
+int width
+int height
+string url
+bool isScriptEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string wid
+TableCell cell
+string eventName
+string title
+int width
+int height
+string url
+bool isScriptEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowCilentConfirm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示客户端确认窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebControl control
+string eventName
+string message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebControl control
+string eventName
+string title
+int width
+int height
+string message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteScript</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写javascript脚本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string script</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCurrentPage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到当前页对象实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System.Web.UI.Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertJson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItPachong.DoNet.Utilities.Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSON转换类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertJson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListToJson&lt;T&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List转换成Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IList&lt;T&gt; list</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IList&lt;T&gt; list
+string jsonName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToJson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象转换为Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>object jsonObject</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象集合转换Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IEnumerable array</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToArrayString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通集合转换Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSet转换为Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataSet dataSet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datatable转换为Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable dt
+string jsonName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataReader转换为Json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbDataReader dataReader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>J</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SON帮助类</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JsonHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsJson</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查字符串是否json格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string jText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsJsonRs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查字符串是否json格式数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fmt_Null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化 json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fmt_Rs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格式化 json ，删除左右二边的[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>object obj</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToJson_FromSQL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化--sql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToDataTable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>反序列化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataTable</t>
+  </si>
+  <si>
+    <t>ToObject&lt;T&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志帮助类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItPachong.DoNet.Utilities.Log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogHelper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WriteLog</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加info信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string info</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加异常信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string info
+Exception ex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5358,6 +7686,23 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -5726,10 +8071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6226,7 +8571,7 @@
       </c>
       <c r="E32" s="7"/>
     </row>
-    <row r="33" spans="1:5" ht="142.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>32</v>
       </c>
@@ -6234,10 +8579,10 @@
         <v>904</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>905</v>
+        <v>1579</v>
       </c>
       <c r="E33" s="7"/>
     </row>
@@ -6249,10 +8594,10 @@
         <v>904</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>941</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>942</v>
       </c>
       <c r="E34" s="7"/>
     </row>
@@ -6261,13 +8606,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
+        <v>949</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>950</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="9" t="s">
         <v>951</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>952</v>
       </c>
       <c r="E35" s="7"/>
     </row>
@@ -6276,13 +8621,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E36" s="7"/>
     </row>
@@ -6291,13 +8636,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>1134</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>1135</v>
       </c>
       <c r="E37" s="7"/>
     </row>
@@ -6306,15 +8651,360 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>1152</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>1153</v>
-      </c>
       <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="7">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="7">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="7">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="7">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="7">
+        <v>59</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="7">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E61" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6355,6 +9045,25 @@
     <hyperlink ref="C36" location="函数描述!B541" display="FileOperateHelper"/>
     <hyperlink ref="C37" location="函数描述!B567" display="INIFileHelper"/>
     <hyperlink ref="C38" location="函数描述!B576" display="TimeHelper"/>
+    <hyperlink ref="C39" location="函数描述!B596" display="FTPClient"/>
+    <hyperlink ref="C40" location="函数描述!B619" display="FTPHelper"/>
+    <hyperlink ref="C41" location="函数描述!B635" display="FTPOperater"/>
+    <hyperlink ref="C42" location="函数描述!B650" display="GridViewHelper"/>
+    <hyperlink ref="C43" location="函数描述!B661" display="HttpCookieHelper"/>
+    <hyperlink ref="C45" location="函数描述!B668" display="HttpHelper"/>
+    <hyperlink ref="C48" location="函数描述!B673" display="ImageClass"/>
+    <hyperlink ref="C50" location="函数描述!B696" display="FileValidation"/>
+    <hyperlink ref="C51" location="函数描述!B703" display="ImageUpload"/>
+    <hyperlink ref="C52" location="函数描述!B708" display="Adsl"/>
+    <hyperlink ref="C53" location="函数描述!B724" display="IpHelper"/>
+    <hyperlink ref="C54" location="函数描述!B730" display="NetHelper"/>
+    <hyperlink ref="C55" location="函数描述!B763" display="UrlHelper"/>
+    <hyperlink ref="C56" location="函数描述!B774" display="JsHelper"/>
+    <hyperlink ref="C57" location="函数描述!B786" display="MessageBox"/>
+    <hyperlink ref="C58" location="函数描述!B795" display="ShowMessageBox"/>
+    <hyperlink ref="C59" location="函数描述!B815" display="ConvertJson"/>
+    <hyperlink ref="C60" location="函数描述!B828" display="JsonHelper"/>
+    <hyperlink ref="C61" location="函数描述!B840" display="LogHelper"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6363,10 +9072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D593"/>
+  <dimension ref="A1:D843"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A573" workbookViewId="0">
-      <selection activeCell="A578" sqref="A578:D593"/>
+    <sheetView topLeftCell="A817" workbookViewId="0">
+      <selection activeCell="B840" sqref="B840:D840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11786,7 +14495,7 @@
         <v>9</v>
       </c>
       <c r="B464" s="10" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C464" s="10"/>
       <c r="D464" s="10"/>
@@ -11807,212 +14516,212 @@
     </row>
     <row r="466" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B466" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="B466" s="1" t="s">
+      <c r="C466" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="C466" s="1" t="s">
+      <c r="D466" s="1" t="s">
         <v>910</v>
-      </c>
-      <c r="D466" s="1" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B467" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="C467" s="1" t="s">
-        <v>913</v>
-      </c>
       <c r="D467" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B468" s="1" t="s">
         <v>914</v>
       </c>
-      <c r="B468" s="1" t="s">
+      <c r="C468" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="C468" s="1" t="s">
+      <c r="D468" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B469" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B469" s="1" t="s">
+      <c r="C469" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="C469" s="1" t="s">
-        <v>920</v>
-      </c>
       <c r="D469" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B470" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="B470" s="1" t="s">
-        <v>919</v>
-      </c>
       <c r="C470" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="B471" s="1" t="s">
         <v>922</v>
       </c>
-      <c r="B471" s="1" t="s">
-        <v>923</v>
-      </c>
       <c r="C471" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B472" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="C472" s="1" t="s">
-        <v>925</v>
-      </c>
       <c r="D472" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B474" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="B474" s="1" t="s">
+      <c r="C474" s="1" t="s">
         <v>927</v>
       </c>
-      <c r="C474" s="1" t="s">
-        <v>928</v>
-      </c>
       <c r="D474" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B475" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B475" s="1" t="s">
+      <c r="C475" s="1" t="s">
         <v>930</v>
       </c>
-      <c r="C475" s="1" t="s">
+      <c r="D475" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="D475" s="1" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B476" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B476" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="C476" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B477" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B477" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="C477" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="B478" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="B478" s="1" t="s">
-        <v>930</v>
-      </c>
       <c r="C478" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B479" s="1" t="s">
         <v>934</v>
       </c>
-      <c r="B479" s="1" t="s">
+      <c r="C479" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="C479" s="1" t="s">
+      <c r="D479" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B480" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="B480" s="1" t="s">
+      <c r="C480" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="C480" s="1" t="s">
-        <v>940</v>
-      </c>
       <c r="D480" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12020,7 +14729,7 @@
         <v>9</v>
       </c>
       <c r="B483" s="10" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C483" s="10"/>
       <c r="D483" s="10"/>
@@ -12041,30 +14750,30 @@
     </row>
     <row r="485" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="B485" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="B485" s="1" t="s">
+      <c r="C485" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="C485" s="1" t="s">
-        <v>946</v>
-      </c>
       <c r="D485" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B486" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="B486" s="1" t="s">
+      <c r="C486" s="1" t="s">
         <v>948</v>
       </c>
-      <c r="C486" s="1" t="s">
-        <v>949</v>
-      </c>
       <c r="D486" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12072,7 +14781,7 @@
         <v>9</v>
       </c>
       <c r="B489" s="10" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C489" s="10"/>
       <c r="D489" s="10"/>
@@ -12093,674 +14802,674 @@
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B491" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="B491" s="1" t="s">
+      <c r="C491" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="C491" s="1" t="s">
+      <c r="D491" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="D491" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="B492" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="B492" s="1" t="s">
+      <c r="C492" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="C492" s="1" t="s">
-        <v>960</v>
-      </c>
       <c r="D492" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B493" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="B493" s="1" t="s">
+      <c r="C493" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D493" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="D493" s="1" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B494" s="1" t="s">
         <v>964</v>
       </c>
-      <c r="B494" s="1" t="s">
-        <v>965</v>
-      </c>
       <c r="C494" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B495" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="C495" s="1" t="s">
-        <v>967</v>
-      </c>
       <c r="D495" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B496" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="B496" s="1" t="s">
-        <v>969</v>
-      </c>
       <c r="C496" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="D496" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="D496" s="1" t="s">
-        <v>957</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B497" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="B497" s="1" t="s">
+      <c r="C497" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="C497" s="1" t="s">
-        <v>972</v>
-      </c>
       <c r="D497" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B499" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="B499" s="1" t="s">
+      <c r="C499" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="C499" s="1" t="s">
-        <v>976</v>
-      </c>
       <c r="D499" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B500" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="B500" s="1" t="s">
+      <c r="C500" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C500" s="1" t="s">
+      <c r="D500" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="D500" s="1" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="B501" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="B501" s="1" t="s">
+      <c r="C501" s="1" t="s">
         <v>982</v>
       </c>
-      <c r="C501" s="1" t="s">
-        <v>983</v>
-      </c>
       <c r="D501" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B502" s="1" t="s">
         <v>984</v>
       </c>
-      <c r="B502" s="1" t="s">
+      <c r="C502" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="C502" s="1" t="s">
-        <v>986</v>
-      </c>
       <c r="D502" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="B503" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="B503" s="1" t="s">
+      <c r="C503" s="1" t="s">
         <v>988</v>
       </c>
-      <c r="C503" s="1" t="s">
-        <v>989</v>
-      </c>
       <c r="D503" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B504" s="1" t="s">
         <v>990</v>
       </c>
-      <c r="B504" s="1" t="s">
+      <c r="C504" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="C504" s="1" t="s">
-        <v>992</v>
-      </c>
       <c r="D504" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="C505" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B505" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="C505" s="1" t="s">
+      <c r="D505" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="D505" s="1" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B506" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="B506" s="1" t="s">
-        <v>997</v>
-      </c>
       <c r="C506" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="D506" s="1" t="s">
         <v>994</v>
-      </c>
-      <c r="D506" s="1" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="B507" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B507" s="1" t="s">
+      <c r="C507" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="C507" s="1" t="s">
-        <v>1001</v>
-      </c>
       <c r="D507" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B508" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="B508" s="1" t="s">
+      <c r="C508" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="C508" s="1" t="s">
-        <v>1004</v>
-      </c>
       <c r="D508" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B509" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B509" s="1" t="s">
+      <c r="C509" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="C509" s="1" t="s">
-        <v>1007</v>
-      </c>
       <c r="D509" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B510" s="1" t="s">
         <v>1008</v>
       </c>
-      <c r="B510" s="1" t="s">
-        <v>1009</v>
-      </c>
       <c r="C510" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B511" s="1" t="s">
         <v>1010</v>
       </c>
-      <c r="B511" s="1" t="s">
+      <c r="C511" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C511" s="1" t="s">
-        <v>1012</v>
-      </c>
       <c r="D511" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B512" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C512" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C512" s="1" t="s">
-        <v>1014</v>
-      </c>
       <c r="D512" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B513" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B513" s="1" t="s">
-        <v>1016</v>
-      </c>
       <c r="C513" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D513" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D514" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B515" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C515" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="C515" s="1" t="s">
-        <v>1019</v>
-      </c>
       <c r="D515" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B516" s="1" t="s">
         <v>1020</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="C516" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="D516" s="1" t="s">
         <v>1021</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>960</v>
-      </c>
-      <c r="D516" s="1" t="s">
-        <v>1022</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B517" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B517" s="1" t="s">
-        <v>1024</v>
-      </c>
       <c r="C517" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D517" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D518" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B519" s="1" t="s">
         <v>1026</v>
       </c>
-      <c r="B519" s="1" t="s">
+      <c r="C519" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="C519" s="1" t="s">
-        <v>1028</v>
-      </c>
       <c r="D519" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="520" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B520" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B520" s="1" t="s">
+      <c r="C520" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="C520" s="1" t="s">
-        <v>1031</v>
-      </c>
       <c r="D520" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C521" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="B521" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C521" s="1" t="s">
-        <v>1033</v>
-      </c>
       <c r="D521" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="522" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B522" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B522" s="1" t="s">
+      <c r="C522" s="1" t="s">
         <v>1036</v>
       </c>
-      <c r="C522" s="1" t="s">
-        <v>1037</v>
-      </c>
       <c r="D522" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B523" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="B523" s="1" t="s">
-        <v>1039</v>
-      </c>
       <c r="C523" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D523" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B524" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="B524" s="1" t="s">
-        <v>1041</v>
-      </c>
       <c r="C524" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D524" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B525" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="B525" s="1" t="s">
-        <v>1043</v>
-      </c>
       <c r="C525" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D525" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B526" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="B526" s="1" t="s">
-        <v>1045</v>
-      </c>
       <c r="C526" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D526" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B527" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="B527" s="1" t="s">
-        <v>1047</v>
-      </c>
       <c r="C527" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D527" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B528" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="B528" s="1" t="s">
-        <v>1049</v>
-      </c>
       <c r="C528" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D528" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B529" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="B529" s="1" t="s">
-        <v>1051</v>
-      </c>
       <c r="C529" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D529" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B530" s="1" t="s">
         <v>1052</v>
       </c>
-      <c r="B530" s="1" t="s">
+      <c r="C530" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="C530" s="1" t="s">
-        <v>1054</v>
-      </c>
       <c r="D530" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B531" s="1" t="s">
         <v>1055</v>
       </c>
-      <c r="B531" s="1" t="s">
+      <c r="C531" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="C531" s="1" t="s">
-        <v>1057</v>
-      </c>
       <c r="D531" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B532" s="1" t="s">
         <v>1058</v>
       </c>
-      <c r="B532" s="1" t="s">
+      <c r="C532" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="C532" s="1" t="s">
-        <v>1060</v>
-      </c>
       <c r="D532" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B533" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B533" s="1" t="s">
-        <v>1062</v>
-      </c>
       <c r="C533" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D533" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B534" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B534" s="1" t="s">
-        <v>1064</v>
-      </c>
       <c r="C534" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D534" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B535" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B535" s="1" t="s">
+      <c r="C535" s="1" t="s">
         <v>1068</v>
       </c>
-      <c r="C535" s="1" t="s">
-        <v>1069</v>
-      </c>
       <c r="D535" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C536" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="B536" s="1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>1071</v>
-      </c>
       <c r="D536" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B537" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>1074</v>
       </c>
       <c r="C537" s="1" t="s">
         <v>167</v>
       </c>
       <c r="D537" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B538" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B538" s="1" t="s">
+      <c r="C538" s="1" t="s">
         <v>1076</v>
       </c>
-      <c r="C538" s="1" t="s">
-        <v>1077</v>
-      </c>
       <c r="D538" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -12768,7 +15477,7 @@
         <v>9</v>
       </c>
       <c r="B541" s="10" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C541" s="10"/>
       <c r="D541" s="10"/>
@@ -12789,310 +15498,310 @@
     </row>
     <row r="543" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B543" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B543" s="1" t="s">
+      <c r="C543" s="1" t="s">
         <v>1082</v>
       </c>
-      <c r="C543" s="1" t="s">
-        <v>1083</v>
-      </c>
       <c r="D543" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B544" s="1" t="s">
         <v>1084</v>
       </c>
-      <c r="B544" s="1" t="s">
+      <c r="C544" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="C544" s="1" t="s">
-        <v>1086</v>
-      </c>
       <c r="D544" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B545" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B545" s="1" t="s">
-        <v>1088</v>
-      </c>
       <c r="C545" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="D545" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B546" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B546" s="1" t="s">
-        <v>1090</v>
-      </c>
       <c r="C546" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="D546" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B547" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B547" s="1" t="s">
+      <c r="C547" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="C547" s="1" t="s">
-        <v>1093</v>
-      </c>
       <c r="D547" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B548" s="1" t="s">
         <v>1094</v>
       </c>
-      <c r="B548" s="1" t="s">
+      <c r="C548" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="C548" s="1" t="s">
-        <v>1096</v>
-      </c>
       <c r="D548" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B549" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B549" s="1" t="s">
+      <c r="C549" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="C549" s="1" t="s">
-        <v>1099</v>
-      </c>
       <c r="D549" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="550" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B550" s="1" t="s">
         <v>1100</v>
       </c>
-      <c r="B550" s="1" t="s">
+      <c r="C550" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="C550" s="1" t="s">
-        <v>1102</v>
-      </c>
       <c r="D550" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B551" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B551" s="1" t="s">
+      <c r="C551" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="C551" s="1" t="s">
-        <v>1105</v>
-      </c>
       <c r="D551" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D552" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="553" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B553" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B553" s="1" t="s">
-        <v>1108</v>
-      </c>
       <c r="C553" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D553" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B554" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B554" s="1" t="s">
+      <c r="C554" s="1" t="s">
         <v>1110</v>
       </c>
-      <c r="C554" s="1" t="s">
-        <v>1111</v>
-      </c>
       <c r="D554" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D555" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D556" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B557" s="1" t="s">
         <v>1114</v>
       </c>
-      <c r="B557" s="1" t="s">
+      <c r="C557" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="C557" s="1" t="s">
-        <v>1116</v>
-      </c>
       <c r="D557" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B558" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="B558" s="1" t="s">
+      <c r="C558" s="1" t="s">
         <v>1118</v>
       </c>
-      <c r="C558" s="1" t="s">
-        <v>1119</v>
-      </c>
       <c r="D558" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B559" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="B559" s="1" t="s">
-        <v>1121</v>
-      </c>
       <c r="C559" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D559" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B560" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="B560" s="1" t="s">
+      <c r="C560" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="C560" s="1" t="s">
-        <v>1124</v>
-      </c>
       <c r="D560" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="D561" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B562" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="B562" s="1" t="s">
-        <v>1123</v>
-      </c>
       <c r="C562" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="D562" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B563" s="1" t="s">
         <v>1128</v>
       </c>
-      <c r="B563" s="1" t="s">
+      <c r="C563" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="C563" s="1" t="s">
+      <c r="D563" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="D563" s="1" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B564" s="1" t="s">
         <v>1132</v>
       </c>
-      <c r="B564" s="1" t="s">
-        <v>1133</v>
-      </c>
       <c r="C564" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="D564" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -13100,7 +15809,7 @@
         <v>9</v>
       </c>
       <c r="B567" s="10" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="C567" s="10"/>
       <c r="D567" s="10"/>
@@ -13121,72 +15830,72 @@
     </row>
     <row r="569" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B569" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="B569" s="1" t="s">
+      <c r="C569" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="C569" s="1" t="s">
-        <v>1139</v>
-      </c>
       <c r="D569" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="570" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B570" s="1" t="s">
         <v>1140</v>
       </c>
-      <c r="B570" s="1" t="s">
+      <c r="C570" s="1" t="s">
         <v>1141</v>
       </c>
-      <c r="C570" s="1" t="s">
-        <v>1142</v>
-      </c>
       <c r="D570" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B571" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="B571" s="1" t="s">
+      <c r="C571" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="C571" s="1" t="s">
+      <c r="D571" s="1" t="s">
         <v>1145</v>
-      </c>
-      <c r="D571" s="1" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B572" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="B572" s="1" t="s">
-        <v>1148</v>
-      </c>
       <c r="C572" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D572" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B573" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="B573" s="1" t="s">
+      <c r="C573" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="C573" s="1" t="s">
-        <v>1151</v>
-      </c>
       <c r="D573" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -13194,7 +15903,7 @@
         <v>9</v>
       </c>
       <c r="B576" s="10" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="C576" s="10"/>
       <c r="D576" s="10"/>
@@ -13215,230 +15924,3119 @@
     </row>
     <row r="578" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B578" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="B578" s="1" t="s">
+      <c r="C578" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="C578" s="1" t="s">
+      <c r="D578" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="D578" s="1" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="579" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B579" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B579" s="1" t="s">
+      <c r="C579" s="1" t="s">
         <v>1161</v>
       </c>
-      <c r="C579" s="1" t="s">
+      <c r="D579" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="D579" s="1" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B580" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B580" s="1" t="s">
-        <v>1165</v>
-      </c>
       <c r="C580" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D580" s="1" t="s">
         <v>1162</v>
-      </c>
-      <c r="D580" s="1" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B581" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="B581" s="1" t="s">
+      <c r="C581" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="C581" s="1" t="s">
+      <c r="D581" s="1" t="s">
         <v>1168</v>
-      </c>
-      <c r="D581" s="1" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C582" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B582" s="1" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>1171</v>
-      </c>
       <c r="D582" s="1" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="583" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B583" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B583" s="1" t="s">
-        <v>1174</v>
-      </c>
       <c r="C583" s="1" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D583" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="C584" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D584" s="1" t="s">
         <v>1177</v>
-      </c>
-      <c r="D584" s="1" t="s">
-        <v>1178</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B585" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="B585" s="1" t="s">
+      <c r="C585" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D585" s="1" t="s">
         <v>1181</v>
-      </c>
-      <c r="C585" s="1" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D585" s="1" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B586" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="B586" s="1" t="s">
+      <c r="C586" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="C586" s="1" t="s">
-        <v>1185</v>
-      </c>
       <c r="D586" s="1" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B587" s="1" t="s">
         <v>1186</v>
       </c>
-      <c r="B587" s="1" t="s">
+      <c r="C587" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="C587" s="1" t="s">
+      <c r="D587" s="1" t="s">
         <v>1188</v>
-      </c>
-      <c r="D587" s="1" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B588" s="1" t="s">
         <v>1191</v>
       </c>
-      <c r="B588" s="1" t="s">
+      <c r="C588" s="1" t="s">
         <v>1192</v>
       </c>
-      <c r="C588" s="1" t="s">
-        <v>1193</v>
-      </c>
       <c r="D588" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B589" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C589" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="C589" s="1" t="s">
-        <v>1195</v>
-      </c>
       <c r="D589" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B590" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B590" s="1" t="s">
+      <c r="C590" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="C590" s="1" t="s">
+      <c r="D590" s="1" t="s">
         <v>1198</v>
-      </c>
-      <c r="D590" s="1" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B591" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B591" s="1" t="s">
-        <v>1201</v>
-      </c>
       <c r="C591" s="1" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D591" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B592" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B592" s="1" t="s">
+      <c r="C592" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="C592" s="1" t="s">
-        <v>1202</v>
-      </c>
       <c r="D592" s="1" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B593" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="B593" s="1" t="s">
+      <c r="C593" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="C593" s="1" t="s">
-        <v>1205</v>
-      </c>
       <c r="D593" s="1" t="s">
-        <v>1190</v>
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="596" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A596" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B596" s="10" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C596" s="10"/>
+      <c r="D596" s="10"/>
+    </row>
+    <row r="597" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A597" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C597" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D597" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A598" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D598" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A599" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D599" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A600" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D600" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A601" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D601" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A602" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D602" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="603" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A603" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D603" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A604" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D604" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A605" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D605" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A606" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D606" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="607" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A607" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D607" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="608" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A608" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D608" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="609" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A609" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D609" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="610" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A610" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="D610" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="611" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A611" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D611" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A612" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D612" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="613" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A613" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D613" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A614" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D614" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A615" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D615" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A616" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D616" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="619" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A619" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B619" s="10" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C619" s="10"/>
+      <c r="D619" s="10"/>
+    </row>
+    <row r="620" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A620" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C620" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D620" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="621" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A621" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D621" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A622" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D622" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="623" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A623" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D623" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A624" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D624" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A625" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D625" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A626" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D626" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A627" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D627" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A628" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D628" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A629" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="630" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A630" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D630" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="631" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D631" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="632" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A632" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D632" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="635" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A635" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B635" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C635" s="10"/>
+      <c r="D635" s="10"/>
+    </row>
+    <row r="636" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A636" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C636" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D636" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A637" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D637" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="638" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A638" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D638" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="639" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A639" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D639" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="640" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A640" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D640" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="641" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A641" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D641" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="642" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A642" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D642" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="643" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A643" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D643" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A644" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D644" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="645" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A645" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D645" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="646" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A646" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D646" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A647" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D647" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="650" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A650" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B650" s="10" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C650" s="10"/>
+      <c r="D650" s="10"/>
+    </row>
+    <row r="651" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A651" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C651" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D651" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A652" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D652" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A653" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D653" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="654" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A654" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D654" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="655" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A655" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D655" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="656" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A656" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D656" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="657" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A657" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D657" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="658" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A658" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D658" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="661" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A661" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B661" s="10" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C661" s="10"/>
+      <c r="D661" s="10"/>
+    </row>
+    <row r="662" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A662" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D662" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A663" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B663" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D663" s="1" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="664" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A664" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C664" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D664" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="665" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A665" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C665" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D665" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="668" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A668" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B668" s="10" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C668" s="10"/>
+      <c r="D668" s="10"/>
+    </row>
+    <row r="669" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A669" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C669" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D669" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A670" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B670" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C670" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D670" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="673" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A673" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B673" s="10" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C673" s="10"/>
+      <c r="D673" s="10"/>
+    </row>
+    <row r="674" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A674" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C674" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D674" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="675" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A675" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B675" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C675" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D675" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="676" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A676" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B676" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C676" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="D676" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="677" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A677" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B677" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C677" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D677" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="678" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A678" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B678" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C678" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D678" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="679" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A679" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B679" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C679" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D679" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="680" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A680" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B680" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C680" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D680" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="681" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A681" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B681" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C681" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D681" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="682" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A682" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B682" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C682" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D682" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="683" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A683" s="1" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B683" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C683" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D683" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="684" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A684" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B684" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C684" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D684" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="685" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A685" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B685" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D685" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="686" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A686" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B686" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C686" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="D686" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="687" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A687" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B687" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C687" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D687" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="688" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A688" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B688" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C688" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D688" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="691" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A691" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B691" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C691" s="10"/>
+      <c r="D691" s="10"/>
+    </row>
+    <row r="692" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A692" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C692" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D692" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="693" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A693" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B693" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C693" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D693" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="696" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A696" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B696" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C696" s="10"/>
+      <c r="D696" s="10"/>
+    </row>
+    <row r="697" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A697" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C697" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D697" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="698" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A698" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B698" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C698" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D698" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A699" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B699" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C699" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D699" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A700" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B700" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C700" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D700" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="703" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A703" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B703" s="10" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C703" s="10"/>
+      <c r="D703" s="10"/>
+    </row>
+    <row r="704" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A704" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C704" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D704" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A705" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D705" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="708" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A708" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B708" s="10" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C708" s="10"/>
+      <c r="D708" s="10"/>
+    </row>
+    <row r="709" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A709" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C709" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D709" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="710" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A710" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B710" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C710" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D710" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="711" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A711" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B711" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C711" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D711" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="712" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A712" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B712" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C712" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D712" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="713" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A713" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B713" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C713" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D713" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="714" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A714" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B714" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C714" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D714" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="715" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A715" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B715" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D715" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="716" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A716" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B716" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C716" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D716" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="717" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A717" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B717" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C717" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D717" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A718" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B718" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C718" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="D718" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A719" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B719" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C719" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D719" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A720" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B720" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C720" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="D720" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="721" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A721" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B721" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C721" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D721" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="724" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A724" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B724" s="10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C724" s="10"/>
+      <c r="D724" s="10"/>
+    </row>
+    <row r="725" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A725" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C725" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D725" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A726" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B726" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C726" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D726" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A727" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B727" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C727" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D727" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="730" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A730" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B730" s="10" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C730" s="10"/>
+      <c r="D730" s="10"/>
+    </row>
+    <row r="731" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A731" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C731" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D731" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="732" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A732" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B732" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C732" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D732" s="1" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A733" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B733" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C733" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D733" s="1" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A734" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B734" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C734" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D734" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A735" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B735" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C735" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D735" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A736" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B736" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C736" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D736" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A737" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B737" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C737" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D737" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A738" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B738" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C738" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D738" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A739" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B739" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C739" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D739" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A740" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B740" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C740" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D740" s="1" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A741" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B741" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C741" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D741" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A742" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B742" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C742" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D742" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A743" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B743" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C743" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D743" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A744" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B744" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C744" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D744" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A745" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B745" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C745" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="D745" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A746" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B746" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C746" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D746" s="1" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A747" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B747" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D747" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A748" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B748" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C748" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D748" s="1" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A749" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B749" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C749" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D749" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A750" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B750" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C750" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D750" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A751" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B751" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C751" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D751" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A752" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B752" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C752" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D752" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A753" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B753" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C753" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D753" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A754" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B754" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C754" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="D754" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A755" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B755" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C755" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D755" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A756" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B756" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C756" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="D756" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A757" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B757" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C757" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D757" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A758" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B758" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C758" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D758" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A759" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B759" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C759" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D759" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A760" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B760" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C760" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="D760" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A763" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B763" s="10" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C763" s="10"/>
+      <c r="D763" s="10"/>
+    </row>
+    <row r="764" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A764" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C764" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D764" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A765" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B765" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C765" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D765" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A766" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B766" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C766" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D766" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A767" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B767" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D767" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A768" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B768" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C768" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D768" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A769" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B769" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C769" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D769" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A770" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B770" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C770" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D770" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A771" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B771" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C771" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D771" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A774" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B774" s="10" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C774" s="10"/>
+      <c r="D774" s="10"/>
+    </row>
+    <row r="775" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A775" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B775" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C775" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D775" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A776" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B776" s="1" t="s">
+        <v>1585</v>
+      </c>
+      <c r="C776" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D776" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A777" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B777" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C777" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D777" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A778" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B778" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C778" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D778" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A779" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B779" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A780" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B780" s="1" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A781" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B781" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A782" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B782" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A783" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B783" s="1" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="786" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A786" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B786" s="10" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C786" s="10"/>
+      <c r="D786" s="10"/>
+    </row>
+    <row r="787" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A787" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B787" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C787" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D787" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="788" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A788" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B788" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A789" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B789" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="790" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A790" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B790" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="791" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A791" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B791" s="1" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="792" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A792" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B792" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="795" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A795" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B795" s="10" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C795" s="10"/>
+      <c r="D795" s="10"/>
+    </row>
+    <row r="796" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A796" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B796" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C796" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D796" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A797" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B797" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A798" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B798" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="799" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A799" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B799" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="800" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A800" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B800" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A801" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B801" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A802" s="1" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B802" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A803" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B803" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A804" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="B804" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A805" s="1" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B805" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A806" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B806" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A807" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B807" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" ht="114" x14ac:dyDescent="0.2">
+      <c r="A808" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B808" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A809" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B809" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A810" s="1" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B810" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A811" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B811" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A812" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B812" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A815" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B815" s="10" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C815" s="10"/>
+      <c r="D815" s="10"/>
+    </row>
+    <row r="816" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A816" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B816" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C816" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D816" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A817" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B817" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A818" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B818" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A819" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B819" s="1" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A820" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B820" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A821" s="1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B821" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A822" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B822" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A823" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B823" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A824" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B824" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A825" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B825" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A828" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B828" s="10" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C828" s="10"/>
+      <c r="D828" s="10"/>
+    </row>
+    <row r="829" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A829" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B829" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C829" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D829" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A830" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B830" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A831" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B831" s="1" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A832" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B832" s="1" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A833" s="1" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B833" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A834" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B834" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A835" s="1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A836" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B836" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A837" s="1" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B837" s="1" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A840" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B840" s="10" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C840" s="10"/>
+      <c r="D840" s="10"/>
+    </row>
+    <row r="841" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A841" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B841" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C841" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D841" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A842" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B842" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A843" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B843" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>1531</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="57">
+    <mergeCell ref="B828:D828"/>
+    <mergeCell ref="B840:D840"/>
+    <mergeCell ref="B763:D763"/>
+    <mergeCell ref="B774:D774"/>
+    <mergeCell ref="B786:D786"/>
+    <mergeCell ref="B795:D795"/>
+    <mergeCell ref="B815:D815"/>
+    <mergeCell ref="B596:D596"/>
+    <mergeCell ref="B489:D489"/>
+    <mergeCell ref="B541:D541"/>
+    <mergeCell ref="B567:D567"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="C346:D374"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B390:D390"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="B464:D464"/>
+    <mergeCell ref="B483:D483"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B209:D209"/>
     <mergeCell ref="B455:D455"/>
     <mergeCell ref="B576:D576"/>
     <mergeCell ref="B1:D1"/>
@@ -13455,27 +19053,18 @@
     <mergeCell ref="B117:D117"/>
     <mergeCell ref="B138:D138"/>
     <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B489:D489"/>
-    <mergeCell ref="B541:D541"/>
-    <mergeCell ref="B567:D567"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B335:D335"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="C346:D374"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B390:D390"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="B464:D464"/>
-    <mergeCell ref="B483:D483"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="B448:D448"/>
+    <mergeCell ref="B619:D619"/>
+    <mergeCell ref="B635:D635"/>
+    <mergeCell ref="B650:D650"/>
+    <mergeCell ref="B661:D661"/>
+    <mergeCell ref="B668:D668"/>
+    <mergeCell ref="B724:D724"/>
+    <mergeCell ref="B730:D730"/>
+    <mergeCell ref="B673:D673"/>
+    <mergeCell ref="B691:D691"/>
+    <mergeCell ref="B696:D696"/>
+    <mergeCell ref="B703:D703"/>
+    <mergeCell ref="B708:D708"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
